--- a/Test Execution/Sangeetha/Testcase- Insurance Preethi.xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance Preethi.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="463">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -700,34 +700,6 @@
     <t>Select  Second Review</t>
   </si>
   <si>
-    <t>Verify that user is able to reconcile op bils in Auditing tab</t>
-  </si>
-  <si>
-    <t>Go to Auditing tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pateint insurance details should be displayed based on the search criteria
-User should be able to cross check insurance amount </t>
-  </si>
-  <si>
-    <t>Go to Auditing</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_048</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_049</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_050</t>
-  </si>
-  <si>
-    <t>Check whether user can clear search criterias on clicking clear option in Auditing tab</t>
-  </si>
-  <si>
-    <t>Check whether user can refresh search results for Auditing page</t>
-  </si>
-  <si>
     <t>Go to Menu from left pane and select 
 Menu&gt;&gt;Bill Editing&gt;&gt;Invoice Editing</t>
   </si>
@@ -745,14 +717,8 @@
 Invoice Editing</t>
   </si>
   <si>
-    <t>MED_ Insurance_TC_051</t>
-  </si>
-  <si>
     <t>Verify that user can 
 search Patient bill details by selecting Invoice Date change</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_052</t>
   </si>
   <si>
     <t>Go to Application selector
@@ -799,9 +765,6 @@
     <t>Search result should be displayed</t>
   </si>
   <si>
-    <t>MED_ Insurance_TC_053</t>
-  </si>
-  <si>
     <t>TC_Med_12</t>
   </si>
   <si>
@@ -1239,800 +1202,14 @@
     <t>User should be able to add Pre approval Request Entry</t>
   </si>
   <si>
-    <t>MED_ Insurance_TC_054</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_055</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_056</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_057</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_058</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_059</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_060</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_061</t>
-  </si>
-  <si>
-    <t>Enter search criteria From and To  and click 
-on show</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_062</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_063</t>
-  </si>
-  <si>
-    <t>Enter manadtory fields ans click on SAVE button</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_064</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Transactions&gt;&gt;Patient Register</t>
-  </si>
-  <si>
-    <t>Patient Register details should be displayed 
-The default details should be displayed as per todays data</t>
-  </si>
-  <si>
-    <t>Verify that user able to 
-view pateint details in Patient Register Details</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_065</t>
-  </si>
-  <si>
-    <t>Patient Register details should be displayed 
-The default details should be displayed as per todays date</t>
-  </si>
-  <si>
     <t>Batch TC</t>
-  </si>
-  <si>
-    <t>Verify that user able to 
-view extend Preapproval details</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Transactions&gt;&gt;Extend Pre Approval</t>
-  </si>
-  <si>
-    <t>Verify the Extend Pre Approval page
-Enter the data for from Date,To Date,Patient Name,Patient No.and click on Search option</t>
-  </si>
-  <si>
-    <t>Patient's Extend Preapproval details should be displayed</t>
-  </si>
-  <si>
-    <t>Click on close button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page should be closed </t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_066</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Transactions&gt;&gt;Surgery Request</t>
-  </si>
-  <si>
-    <t>Extend Pre approval page is displayed</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_067</t>
-  </si>
-  <si>
-    <t>Verify that user able to 
-create Surgery Request</t>
-  </si>
-  <si>
-    <t>Surgery Request page should be displayed</t>
-  </si>
-  <si>
-    <t>Try to add surgery Type and Surgery Name</t>
-  </si>
-  <si>
-    <t>User should be able save Surgery Type and Surgery Name</t>
-  </si>
-  <si>
-    <t>Search the patient by entering manadatory field Patient ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient details should be populated </t>
-  </si>
-  <si>
-    <t>Select  Diagnosis view to view details</t>
-  </si>
-  <si>
-    <t>Diagnosis view should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user able to 
-add Allergy </t>
-  </si>
-  <si>
-    <t>Select  Add Allergy on the right side</t>
-  </si>
-  <si>
-    <t>Allergy Details page should be displayed</t>
-  </si>
-  <si>
-    <t>Try to add allergy details</t>
-  </si>
-  <si>
-    <t>User should be able to add allergy details</t>
-  </si>
-  <si>
-    <t>Verify that user can view history of allergies</t>
-  </si>
-  <si>
-    <t>User should be able to view history allergy details</t>
-  </si>
-  <si>
-    <t>Verify that user able to 
-view Surgery Calender</t>
-  </si>
-  <si>
-    <t>Select Surgery Calender</t>
-  </si>
-  <si>
-    <t>Surgery Schedule view is displayed</t>
-  </si>
-  <si>
-    <t>Select  Theatre and and verify the details</t>
-  </si>
-  <si>
-    <t>User should be able to view surgery scheduled details</t>
-  </si>
-  <si>
-    <t>Click on Previous option</t>
-  </si>
-  <si>
-    <t>User should be able to view previous details</t>
-  </si>
-  <si>
-    <t>Click on NEXT option</t>
-  </si>
-  <si>
-    <t>User should be able to view next scheduled surgery details</t>
-  </si>
-  <si>
-    <t>Check whether user can attach file
-in Surgery  Request Page</t>
-  </si>
-  <si>
-    <t>Try to attach surgery file</t>
-  </si>
-  <si>
-    <t>User should be able to attach surgery file</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_069</t>
   </si>
   <si>
     <t>View attachment
  is not working in surgery request</t>
   </si>
   <si>
-    <t>Check whether user can view previously attached files</t>
-  </si>
-  <si>
-    <t>Again select  View Previous Attachments  option</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> User should be able to view previous attached files.</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_070</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Transactions&gt;&gt;Review Revert Details</t>
-  </si>
-  <si>
-    <t>Review Details should be displayed</t>
-  </si>
-  <si>
-    <t>Enter  search criterias
-Billed from,
-Billed to,
-Bill no,
-Patient Id,
-Bill Type (OP bill,IP bill,Pharmacy bill) TPA
-,Insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searh results should be displayed </t>
-  </si>
-  <si>
-    <t>Check whether user can search Review Revert Details</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_078</t>
-  </si>
-  <si>
-    <t>User should be able to cancel first review</t>
-  </si>
-  <si>
-    <t>User should be able to cancel second review</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to cancel Audit </t>
-  </si>
-  <si>
-    <t>Try to cancel Audit and enter remarks</t>
-  </si>
-  <si>
-    <t>Try to cancel second  review and enter remarks</t>
-  </si>
-  <si>
-    <t>Try to cancel first review and enter remarks</t>
-  </si>
-  <si>
-    <t>Check whether user can search OP bill Review Revert Details</t>
-  </si>
-  <si>
-    <t>Check whether user can search IP bill Review Revert Details</t>
-  </si>
-  <si>
-    <t>Check whether user can search and cancel  Pharmacy Review Revert Details</t>
-  </si>
-  <si>
-    <t>Enter  search criterias
-Billed from,
-Billed to,
-Bill no,
-Patient Id,
-Bill Type (Pharmacy bill) 
-TPA
-,Insurance</t>
-  </si>
-  <si>
-    <t>Enter  search criterias
-Billed from,
-Billed to,
-Bill no,
-Patient Id,
-Bill Type  IP
-TPA
-,Insurance</t>
-  </si>
-  <si>
-    <t>Enter  search criterias
-Billed from,
-Billed to,
-Bill no,
-Patient Id,
-Bill Type OP bill
- TPA
-,Insurance</t>
-  </si>
-  <si>
-    <t>Check whether user can search and cancel Audit Review Revert Details</t>
-  </si>
-  <si>
-    <t>Try to cancel First review</t>
-  </si>
-  <si>
-    <t>User should be able to cancel</t>
-  </si>
-  <si>
-    <t>Try to cancel Second review</t>
-  </si>
-  <si>
-    <t>Check whether user can search and cancel  any bill in Review Revert Details</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_082</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Submission and Resubmission</t>
-  </si>
-  <si>
-    <t>Eclaim Generation page is displayed</t>
-  </si>
-  <si>
-    <t>Verify that XML eclaim bill is generated  for IP
-Enter the From date To date check IP and click on Process</t>
-  </si>
-  <si>
-    <t>XML Eclaim should be generated and automatically would to save to third party software by DHO(Dubai Health Organisation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether user can search Eclaim Submission for IP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether user can search Eclaim Submission for OP consolidate </t>
-  </si>
-  <si>
-    <t>Check whether user can search Eclaim Submission for OP Credit</t>
-  </si>
-  <si>
-    <t>Check whether user can search Eclaim Submission for Pharmacy</t>
-  </si>
-  <si>
-    <t>Verify that XML eclaim bill is generated  for Pharmacy
-Enter the From date To date check Pharmacy and click on Process</t>
-  </si>
-  <si>
-    <t>Verify that XML eclaim bill is generated  for OP Credit
-Enter the From date To date check OP Credit and click on Process</t>
-  </si>
-  <si>
-    <t>Verify that XML eclaim bill is generated  for OP Consolidate
-Enter the From date To date check OP consolidate and click on Process</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Submission and Resubmission&gt;&gt; Eclaim Remittance</t>
-  </si>
-  <si>
-    <t>Eclaim Remittance page is displayed</t>
-  </si>
-  <si>
-    <t>Select  To manual Process and choose file and  Process</t>
-  </si>
-  <si>
-    <t>Check whether user can search Eclaim Remittance  for Billing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to process Eclaim remittance </t>
-  </si>
-  <si>
-    <t>Check whether user can search Eclaim Remittance by direct Download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select  ToDirect Download and click on Search </t>
-  </si>
-  <si>
-    <t>Access Denied</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Submission and Resubmission&gt;&gt; Eclaim Resubmission</t>
-  </si>
-  <si>
-    <t>Eclaim Resubmission  page is displayed</t>
-  </si>
-  <si>
-    <t>Verify the Eclaim Resubmission search page for IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the search results 
-From  and To 
-Remittance File name
-Topup bills
-Generated bills 
-Productions
-Fully paid
-Non standard code
-Excl.VeAmt bills
-Test XML
-Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
-Select IP
-Based on
-      TPA,Insurance,Network Selection ,TPA name and click on search </t>
-  </si>
-  <si>
-    <t>Verify the Eclaim Resubmission search page for OP credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the search results 
-From  and To 
-Remittance File name
-Topup bills
-Generated bills 
-Productions
-Fully paid
-Non standard code
-Excl.VeAmt bills
-Test XML
-Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
-Select OP Credit
-Based on
-      TPA,Insurance,Network Selection ,TPA name and click on search </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the search results 
-From  and To 
-Remittance File name
-Topup bills
-Generated bills 
-Productions
-Fully paid
-Non standard code
-Excl.VeAmt bills
-Test XML
-Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
-Select OP Consolidate
-Based on
-      TPA,Insurance,Network Selection ,TPA name and click on search </t>
-  </si>
-  <si>
-    <t>Verify the Eclaim Resubmission search page for Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the search results 
-From  and To 
-Remittance File name
-Topup bills
-Generated bills 
-Productions
-Fully paid
-Non standard code
-Excl.VeAmt bills
-Test XML
-Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
-Select Pharmacy
-Based on
-      TPA,Insurance,Network Selection ,TPA name and click on search </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the search results 
-From  and To 
-Remittance File name
-Topup bills
-Generated bills 
-Productions
-Fully paid
-Non standard code
-Excl.VeAmt bills
-Test XML
-Check boxes:IP.Opconsolidate ,Op credit,Pharmacy,Billing
-Select Billing
-Based on
-      TPA,Insurance,Network Selection ,TPA name and click on search </t>
-  </si>
-  <si>
-    <t>Verify the Eclaim Resubmission search page for Billing</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Collection&amp;Allocations&gt;&gt;Cash Collection</t>
-  </si>
-  <si>
-    <t>Cash collection page should be displayed</t>
-  </si>
-  <si>
     <t>Issue in  Receipt no in Cash collection</t>
-  </si>
-  <si>
-    <t>Verify that user can verify cash collection page</t>
-  </si>
-  <si>
-    <t>Need clarification</t>
-  </si>
-  <si>
-    <t>Verify that user can verify cash collection by cheque</t>
-  </si>
-  <si>
-    <r>
-      <t>Select Customer an receipt date and Select Payment mode as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cash  C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lick on search button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Select Customer an receipt date and Select Payment mode as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cheque</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on search button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Select Customer an receipt date and Select Payment mode as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on search button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Select Customer an receipt date and Select Payment mode as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Credit card</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on search button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Select Customer an receipt date and Select Payment mode as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bank Transfer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click on search button</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify that user can process batchwise cash entry</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Collection&amp;Allocations&gt;&gt;Batch wise Cash Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to process </t>
-  </si>
-  <si>
-    <t>User should be able to process batch wise collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter receipt number in Search with receipt number and click on search </t>
-  </si>
-  <si>
-    <t>User can search all bills</t>
-  </si>
-  <si>
-    <t>Verify that batchwise cash entry search page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select search icon </t>
-  </si>
-  <si>
-    <t>Automatically receipt number should be displayed incremently</t>
-  </si>
-  <si>
-    <t>Enter the paid amount and click on SAVE button</t>
-  </si>
-  <si>
-    <t>Cash details should be saved.</t>
-  </si>
-  <si>
-    <t>Verify that bill settlement cancellation</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Collection&amp;Allocations&gt;&gt;Bill settlement cancellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter receipt number in Search with receipt number and click on show </t>
-  </si>
-  <si>
-    <t>Verify the  Final Settlement</t>
-  </si>
-  <si>
-    <t>Verify the  Bill Settlement</t>
-  </si>
-  <si>
-    <t>Verify the  Batchwise Write off</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Utilities&gt;&gt;Add Policy</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Utilities&gt;&gt;Insurance closing</t>
-  </si>
-  <si>
-    <t>Go to Menu from left pane and select 
-Menu&gt;&gt;Utilities&gt;&gt;Pateint search</t>
-  </si>
-  <si>
-    <t>Enter patient no.,Mobile,Patient name,M/F,DOB,Email,Nationality,National id,Tick current id, Click on search</t>
-  </si>
-  <si>
-    <t>User can search patient details</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_068</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_071</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_072</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_073</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_074</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_075</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_076</t>
-  </si>
-  <si>
-    <t>MED_ Insurance_TC_077</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_080</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_081</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_083</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_084</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_085</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_086</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_087</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_088</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_089</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_090</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_091</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_092</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_093</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_094</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_095</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_096</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_097</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_098</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_099</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_100</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_101</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_102</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_103</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_104</t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the  add policy in Utlities for Insurance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the  Insurance closing in Utlities for Insurance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the Patient Search in  Utlities for Insurance </t>
-  </si>
-  <si>
-    <t>MED_Insurance_TC_106</t>
   </si>
   <si>
     <t>As Expected</t>
@@ -2557,7 +1734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2606,9 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2939,7 +2113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2947,11 +2121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S825"/>
+  <dimension ref="A1:S396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3013,14 +2187,14 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="R1" s="27" t="s">
+      <c r="P1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="27"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -3051,7 +2225,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -3076,10 +2250,10 @@
         <v>24</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>535</v>
+        <v>339</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="5"/>
@@ -3115,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
@@ -3145,7 +2319,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>534</v>
+        <v>338</v>
       </c>
       <c r="L5" s="4"/>
       <c r="R5" s="7" t="s">
@@ -3169,8 +2343,8 @@
       <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>536</v>
+      <c r="M6" s="18" t="s">
+        <v>340</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
@@ -3191,7 +2365,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>554</v>
+        <v>358</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>29</v>
@@ -3209,10 +2383,10 @@
         <v>24</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>535</v>
+        <v>339</v>
       </c>
       <c r="L9" s="4"/>
     </row>
@@ -3227,7 +2401,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L10" s="4"/>
     </row>
@@ -3242,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L11" s="4"/>
     </row>
@@ -3257,10 +2431,10 @@
         <v>155</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="L12" s="4"/>
     </row>
@@ -3275,7 +2449,7 @@
         <v>63</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L13" s="4"/>
     </row>
@@ -3290,7 +2464,7 @@
         <v>65</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>12</v>
@@ -3329,10 +2503,10 @@
         <v>24</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>535</v>
+        <v>339</v>
       </c>
       <c r="L17" s="4"/>
     </row>
@@ -3347,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L18" s="4"/>
     </row>
@@ -3362,7 +2536,7 @@
         <v>60</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L19" s="4"/>
     </row>
@@ -3377,10 +2551,10 @@
         <v>155</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="L20" s="4"/>
     </row>
@@ -3395,7 +2569,7 @@
         <v>63</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L21" s="4"/>
     </row>
@@ -3410,7 +2584,7 @@
         <v>65</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L22" s="4"/>
     </row>
@@ -3425,7 +2599,7 @@
         <v>68</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>12</v>
@@ -3460,7 +2634,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L26" s="4"/>
     </row>
@@ -3475,7 +2649,7 @@
         <v>25</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L27" s="4"/>
     </row>
@@ -3487,13 +2661,13 @@
         <v>31</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>538</v>
+        <v>342</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="L28" s="4"/>
     </row>
@@ -3508,7 +2682,7 @@
         <v>90</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L29" s="4"/>
     </row>
@@ -3523,7 +2697,7 @@
         <v>92</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>12</v>
@@ -3540,13 +2714,13 @@
         <v>46</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>558</v>
+        <v>362</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L32" s="4"/>
     </row>
@@ -3561,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -3576,7 +2750,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L34" s="4"/>
     </row>
@@ -3588,10 +2762,10 @@
         <v>31</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>539</v>
+        <v>343</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L35" s="4"/>
     </row>
@@ -3606,7 +2780,7 @@
         <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -3615,16 +2789,16 @@
         <v>5</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>541</v>
+        <v>345</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>540</v>
+        <v>344</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>542</v>
+        <v>346</v>
       </c>
       <c r="L37" s="4"/>
     </row>
@@ -3639,7 +2813,7 @@
         <v>78</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>12</v>
@@ -3649,7 +2823,7 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="45">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3674,7 +2848,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L41" s="4"/>
     </row>
@@ -3689,7 +2863,7 @@
         <v>25</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L42" s="4"/>
     </row>
@@ -3704,7 +2878,7 @@
         <v>32</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L43" s="4"/>
     </row>
@@ -3719,7 +2893,7 @@
         <v>52</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -3731,10 +2905,10 @@
         <v>163</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>543</v>
+        <v>347</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L45" s="4"/>
     </row>
@@ -3749,7 +2923,7 @@
         <v>85</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>12</v>
@@ -3760,7 +2934,7 @@
     </row>
     <row r="49" spans="1:12" ht="45">
       <c r="A49" s="11" t="s">
-        <v>604</v>
+        <v>408</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>46</v>
@@ -3783,7 +2957,7 @@
         <v>24</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30">
@@ -3797,7 +2971,7 @@
         <v>25</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="60">
@@ -3811,7 +2985,7 @@
         <v>32</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="45">
@@ -3825,7 +2999,7 @@
         <v>52</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="45">
@@ -3836,13 +3010,13 @@
         <v>54</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>540</v>
+        <v>344</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>544</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
@@ -3856,7 +3030,7 @@
         <v>58</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="45">
@@ -3870,7 +3044,7 @@
         <v>97</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>12</v>
@@ -3905,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L59" s="4"/>
     </row>
@@ -3920,7 +3094,7 @@
         <v>25</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L60" s="4"/>
     </row>
@@ -3935,7 +3109,7 @@
         <v>32</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L61" s="4"/>
     </row>
@@ -3950,7 +3124,7 @@
         <v>52</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L62" s="4"/>
     </row>
@@ -3962,13 +3136,13 @@
         <v>54</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>540</v>
+        <v>344</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>544</v>
+        <v>348</v>
       </c>
       <c r="L63" s="4"/>
     </row>
@@ -3983,7 +3157,7 @@
         <v>83</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>12</v>
@@ -4006,7 +3180,7 @@
         <v>142</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L66" s="4"/>
     </row>
@@ -4021,7 +3195,7 @@
         <v>24</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L67" s="4"/>
     </row>
@@ -4036,7 +3210,7 @@
         <v>25</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L68" s="4"/>
     </row>
@@ -4051,7 +3225,7 @@
         <v>32</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L69" s="4"/>
     </row>
@@ -4060,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>545</v>
+        <v>349</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L70" s="4"/>
     </row>
@@ -4078,17 +3252,17 @@
         <v>54</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>546</v>
+        <v>350</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>549</v>
+        <v>353</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" t="s">
-        <v>550</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="30">
@@ -4102,16 +3276,16 @@
         <v>59</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>547</v>
+        <v>351</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M72" s="19" t="s">
-        <v>548</v>
+      <c r="M72" s="18" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4125,13 +3299,13 @@
         <v>46</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>551</v>
+        <v>355</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L74" s="4"/>
     </row>
@@ -4146,7 +3320,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L75" s="4"/>
     </row>
@@ -4161,7 +3335,7 @@
         <v>25</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L76" s="4"/>
     </row>
@@ -4176,7 +3350,7 @@
         <v>32</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L77" s="4"/>
     </row>
@@ -4185,13 +3359,13 @@
         <v>4</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>564</v>
+        <v>368</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L78" s="4"/>
     </row>
@@ -4206,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>12</v>
@@ -4216,7 +3390,7 @@
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" ht="60">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -4229,7 +3403,7 @@
         <v>69</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>566</v>
+        <v>370</v>
       </c>
       <c r="L81" s="4"/>
     </row>
@@ -4311,7 +3485,7 @@
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" ht="45">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -4321,10 +3495,10 @@
         <v>46</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>573</v>
+        <v>377</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L89" s="4"/>
     </row>
@@ -4413,7 +3587,7 @@
         <v>41</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L97" s="4"/>
     </row>
@@ -4428,7 +3602,7 @@
         <v>24</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L98" s="4"/>
     </row>
@@ -4443,7 +3617,7 @@
         <v>25</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L99" s="4"/>
     </row>
@@ -4458,7 +3632,7 @@
         <v>32</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L100" s="4"/>
     </row>
@@ -4473,7 +3647,7 @@
         <v>34</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L101" s="4"/>
     </row>
@@ -4488,7 +3662,7 @@
         <v>43</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>12</v>
@@ -4498,17 +3672,17 @@
       <c r="L103" s="4"/>
     </row>
     <row r="104" spans="1:12" ht="45">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>572</v>
+        <v>376</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L104" s="4"/>
     </row>
@@ -4602,7 +3776,7 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" ht="45">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -4612,7 +3786,7 @@
         <v>49</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L113" s="4"/>
     </row>
@@ -4627,7 +3801,7 @@
         <v>24</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L114" s="4"/>
     </row>
@@ -4642,7 +3816,7 @@
         <v>25</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L115" s="4"/>
     </row>
@@ -4657,7 +3831,7 @@
         <v>32</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L116" s="4"/>
     </row>
@@ -4672,7 +3846,7 @@
         <v>52</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>12</v>
@@ -4682,7 +3856,7 @@
       <c r="L118" s="4"/>
     </row>
     <row r="119" spans="1:12" ht="45">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -4692,7 +3866,7 @@
         <v>76</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L119" s="4"/>
     </row>
@@ -4774,17 +3948,17 @@
       <c r="L126" s="4"/>
     </row>
     <row r="127" spans="1:12" ht="45">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>552</v>
+        <v>356</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L127" s="4"/>
     </row>
@@ -4866,17 +4040,17 @@
       <c r="L134" s="4"/>
     </row>
     <row r="135" spans="1:12" ht="45">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="19" t="s">
         <v>105</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>578</v>
+        <v>382</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L135" s="4"/>
     </row>
@@ -4958,17 +4132,17 @@
       <c r="L142" s="4"/>
     </row>
     <row r="143" spans="1:12" ht="45">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>580</v>
+        <v>384</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L143" s="4"/>
     </row>
@@ -5050,7 +4224,7 @@
       <c r="L150" s="4"/>
     </row>
     <row r="151" spans="1:12" ht="45">
-      <c r="A151" s="20" t="s">
+      <c r="A151" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -5060,7 +4234,7 @@
         <v>79</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="L151" s="4"/>
     </row>
@@ -5145,7 +4319,7 @@
       <c r="L159" s="4"/>
     </row>
     <row r="160" spans="1:12" ht="45">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -5155,7 +4329,7 @@
         <v>109</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>583</v>
+        <v>387</v>
       </c>
       <c r="L160" s="4"/>
     </row>
@@ -5220,8 +4394,8 @@
       <c r="L165" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M165" s="19" t="s">
-        <v>603</v>
+      <c r="M165" s="18" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -5231,7 +4405,7 @@
       <c r="L167" s="4"/>
     </row>
     <row r="168" spans="1:13" ht="45">
-      <c r="A168" s="20" t="s">
+      <c r="A168" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -5293,16 +4467,16 @@
       </c>
     </row>
     <row r="174" spans="1:13">
-      <c r="G174" s="21"/>
+      <c r="G174" s="20"/>
       <c r="L174" s="4"/>
     </row>
     <row r="175" spans="1:13">
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
       <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:13" ht="45">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C176" s="5" t="s">
@@ -5383,7 +4557,7 @@
         <v>24</v>
       </c>
       <c r="H182" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L182" s="4"/>
     </row>
@@ -5398,7 +4572,7 @@
         <v>25</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L183" s="4"/>
     </row>
@@ -5413,7 +4587,7 @@
         <v>119</v>
       </c>
       <c r="H184" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L184" s="4"/>
     </row>
@@ -5428,16 +4602,16 @@
         <v>120</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>585</v>
+        <v>389</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>584</v>
+        <v>388</v>
       </c>
       <c r="L185" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M185" s="19" t="s">
-        <v>586</v>
+      <c r="M185" s="18" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -5474,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L189" s="4"/>
     </row>
@@ -5489,7 +4663,7 @@
         <v>25</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L190" s="4"/>
     </row>
@@ -5504,7 +4678,7 @@
         <v>123</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L191" s="4"/>
     </row>
@@ -5519,10 +4693,10 @@
         <v>125</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>587</v>
+        <v>391</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>12</v>
@@ -5560,7 +4734,7 @@
         <v>24</v>
       </c>
       <c r="H196" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L196" s="4"/>
     </row>
@@ -5575,7 +4749,7 @@
         <v>25</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L197" s="4"/>
     </row>
@@ -5590,7 +4764,7 @@
         <v>123</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L198" s="4"/>
     </row>
@@ -5605,7 +4779,7 @@
         <v>177</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L199" s="4"/>
     </row>
@@ -5620,10 +4794,10 @@
         <v>125</v>
       </c>
       <c r="H200" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>588</v>
+        <v>392</v>
       </c>
       <c r="L200" s="4" t="s">
         <v>12</v>
@@ -5642,7 +4816,7 @@
         <v>46</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>589</v>
+        <v>393</v>
       </c>
       <c r="F202" s="11" t="s">
         <v>41</v>
@@ -5677,8 +4851,8 @@
       <c r="L205" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M205" s="19" t="s">
-        <v>602</v>
+      <c r="M205" s="18" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -5714,7 +4888,7 @@
         <v>24</v>
       </c>
       <c r="H209" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L209" s="4"/>
     </row>
@@ -5729,7 +4903,7 @@
         <v>25</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L210" s="4"/>
     </row>
@@ -5744,7 +4918,7 @@
         <v>135</v>
       </c>
       <c r="H211" s="11" t="s">
-        <v>590</v>
+        <v>394</v>
       </c>
       <c r="L211" s="4"/>
     </row>
@@ -5759,19 +4933,19 @@
         <v>145</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L212" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="C213" s="22"/>
+      <c r="C213" s="21"/>
       <c r="D213" s="15"/>
       <c r="L213" s="4"/>
     </row>
     <row r="214" spans="1:12" ht="45">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="19" t="s">
         <v>136</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -5796,7 +4970,7 @@
         <v>24</v>
       </c>
       <c r="H215" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L215" s="4"/>
     </row>
@@ -5811,7 +4985,7 @@
         <v>25</v>
       </c>
       <c r="H216" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L216" s="4"/>
     </row>
@@ -5826,7 +5000,7 @@
         <v>147</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L217" s="4" t="s">
         <v>12</v>
@@ -5839,7 +5013,7 @@
       <c r="L219" s="4"/>
     </row>
     <row r="220" spans="1:12" ht="60">
-      <c r="A220" s="20" t="s">
+      <c r="A220" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -5867,7 +5041,7 @@
         <v>24</v>
       </c>
       <c r="H221" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L221" s="4"/>
     </row>
@@ -5882,7 +5056,7 @@
         <v>25</v>
       </c>
       <c r="H222" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I222" s="14"/>
       <c r="L222" s="4"/>
@@ -5898,7 +5072,7 @@
         <v>150</v>
       </c>
       <c r="H223" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L223" s="4"/>
     </row>
@@ -5913,7 +5087,7 @@
         <v>153</v>
       </c>
       <c r="H224" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L224" s="4"/>
     </row>
@@ -5928,10 +5102,10 @@
         <v>155</v>
       </c>
       <c r="H225" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>598</v>
+        <v>402</v>
       </c>
       <c r="L225" s="4"/>
     </row>
@@ -5946,7 +5120,7 @@
         <v>63</v>
       </c>
       <c r="H226" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L226" s="4"/>
     </row>
@@ -5961,7 +5135,7 @@
         <v>157</v>
       </c>
       <c r="H227" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L227" s="4" t="s">
         <v>12</v>
@@ -5972,7 +5146,7 @@
     </row>
     <row r="229" spans="1:12" ht="60">
       <c r="A229" s="11" t="s">
-        <v>605</v>
+        <v>409</v>
       </c>
       <c r="B229" s="11" t="s">
         <v>45</v>
@@ -5999,7 +5173,7 @@
         <v>24</v>
       </c>
       <c r="H230" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L230" s="4"/>
     </row>
@@ -6014,7 +5188,7 @@
         <v>25</v>
       </c>
       <c r="H231" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I231" s="14"/>
       <c r="L231" s="4"/>
@@ -6030,7 +5204,7 @@
         <v>150</v>
       </c>
       <c r="H232" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L232" s="4"/>
     </row>
@@ -6045,7 +5219,7 @@
         <v>153</v>
       </c>
       <c r="H233" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L233" s="4"/>
     </row>
@@ -6060,10 +5234,10 @@
         <v>155</v>
       </c>
       <c r="H234" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I234" s="11" t="s">
-        <v>591</v>
+        <v>395</v>
       </c>
       <c r="L234" s="4"/>
     </row>
@@ -6078,7 +5252,7 @@
         <v>160</v>
       </c>
       <c r="H235" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L235" s="4"/>
     </row>
@@ -6093,7 +5267,7 @@
         <v>157</v>
       </c>
       <c r="H236" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L236" s="4" t="s">
         <v>12</v>
@@ -6134,7 +5308,7 @@
         <v>24</v>
       </c>
       <c r="H240" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L240" s="4"/>
     </row>
@@ -6149,7 +5323,7 @@
         <v>25</v>
       </c>
       <c r="H241" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I241" s="14"/>
       <c r="L241" s="4"/>
@@ -6165,7 +5339,7 @@
         <v>150</v>
       </c>
       <c r="H242" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L242" s="4"/>
     </row>
@@ -6180,7 +5354,7 @@
         <v>153</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L243" s="4"/>
     </row>
@@ -6195,13 +5369,13 @@
         <v>92</v>
       </c>
       <c r="H244" s="11" t="s">
-        <v>592</v>
+        <v>396</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M244" s="19" t="s">
-        <v>593</v>
+      <c r="M244" s="18" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -6236,7 +5410,7 @@
         <v>24</v>
       </c>
       <c r="H247" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L247" s="4"/>
     </row>
@@ -6251,7 +5425,7 @@
         <v>25</v>
       </c>
       <c r="H248" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I248" s="14"/>
       <c r="L248" s="4"/>
@@ -6267,7 +5441,7 @@
         <v>150</v>
       </c>
       <c r="H249" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L249" s="4"/>
     </row>
@@ -6282,7 +5456,7 @@
         <v>153</v>
       </c>
       <c r="H250" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L250" s="4"/>
     </row>
@@ -6297,7 +5471,7 @@
         <v>155</v>
       </c>
       <c r="H251" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L251" s="4"/>
     </row>
@@ -6312,16 +5486,16 @@
         <v>167</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="J252" s="11" t="s">
-        <v>600</v>
+        <v>404</v>
       </c>
       <c r="L252" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M252" s="19" t="s">
-        <v>599</v>
+      <c r="M252" s="18" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -6353,7 +5527,7 @@
         <v>24</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L255" s="4"/>
     </row>
@@ -6368,7 +5542,7 @@
         <v>25</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L256" s="4"/>
     </row>
@@ -6383,7 +5557,7 @@
         <v>32</v>
       </c>
       <c r="H257" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L257" s="4"/>
     </row>
@@ -6398,7 +5572,7 @@
         <v>52</v>
       </c>
       <c r="H258" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L258" s="4"/>
     </row>
@@ -6413,7 +5587,7 @@
         <v>55</v>
       </c>
       <c r="H259" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L259" s="4"/>
     </row>
@@ -6428,7 +5602,7 @@
         <v>85</v>
       </c>
       <c r="H260" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L260" s="4" t="s">
         <v>12</v>
@@ -6438,14 +5612,14 @@
       <c r="L261" s="4"/>
     </row>
     <row r="262" spans="1:12" ht="45">
-      <c r="A262" s="20" t="s">
+      <c r="A262" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>594</v>
+        <v>398</v>
       </c>
       <c r="F262" s="11" t="s">
         <v>41</v>
@@ -6463,7 +5637,7 @@
         <v>24</v>
       </c>
       <c r="H263" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L263" s="4"/>
     </row>
@@ -6478,7 +5652,7 @@
         <v>25</v>
       </c>
       <c r="H264" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L264" s="4"/>
     </row>
@@ -6493,7 +5667,7 @@
         <v>32</v>
       </c>
       <c r="H265" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L265" s="4"/>
     </row>
@@ -6508,7 +5682,7 @@
         <v>52</v>
       </c>
       <c r="H266" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L266" s="4"/>
     </row>
@@ -6523,7 +5697,7 @@
         <v>55</v>
       </c>
       <c r="H267" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L267" s="4"/>
     </row>
@@ -6538,10 +5712,10 @@
         <v>85</v>
       </c>
       <c r="H268" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="J268" s="19" t="s">
-        <v>599</v>
+        <v>405</v>
+      </c>
+      <c r="J268" s="18" t="s">
+        <v>403</v>
       </c>
       <c r="L268" s="4" t="s">
         <v>16</v>
@@ -6582,7 +5756,7 @@
         <v>24</v>
       </c>
       <c r="H273" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L273" s="4"/>
     </row>
@@ -6597,7 +5771,7 @@
         <v>25</v>
       </c>
       <c r="H274" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L274" s="4"/>
     </row>
@@ -6609,7 +5783,7 @@
         <v>162</v>
       </c>
       <c r="H275" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L275" s="4"/>
     </row>
@@ -6624,7 +5798,7 @@
         <v>52</v>
       </c>
       <c r="H276" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L276" s="4"/>
     </row>
@@ -6639,7 +5813,7 @@
         <v>55</v>
       </c>
       <c r="H277" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L277" s="4"/>
     </row>
@@ -6654,7 +5828,7 @@
         <v>83</v>
       </c>
       <c r="H278" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L278" s="4" t="s">
         <v>12</v>
@@ -6689,7 +5863,7 @@
         <v>24</v>
       </c>
       <c r="H281" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L281" s="4"/>
     </row>
@@ -6704,7 +5878,7 @@
         <v>25</v>
       </c>
       <c r="H282" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L282" s="4"/>
     </row>
@@ -6716,7 +5890,7 @@
         <v>162</v>
       </c>
       <c r="H283" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L283" s="4"/>
     </row>
@@ -6731,7 +5905,7 @@
         <v>52</v>
       </c>
       <c r="H284" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L284" s="4"/>
     </row>
@@ -6746,7 +5920,7 @@
         <v>55</v>
       </c>
       <c r="H285" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L285" s="4"/>
     </row>
@@ -6761,7 +5935,7 @@
         <v>180</v>
       </c>
       <c r="H286" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L286" s="4" t="s">
         <v>12</v>
@@ -6772,7 +5946,7 @@
     </row>
     <row r="288" spans="1:12" ht="45">
       <c r="A288" s="11" t="s">
-        <v>606</v>
+        <v>410</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>46</v>
@@ -6796,7 +5970,7 @@
         <v>24</v>
       </c>
       <c r="H289" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L289" s="4"/>
     </row>
@@ -6811,7 +5985,7 @@
         <v>25</v>
       </c>
       <c r="H290" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L290" s="4"/>
     </row>
@@ -6826,7 +6000,7 @@
         <v>190</v>
       </c>
       <c r="H291" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L291" s="4"/>
     </row>
@@ -6852,7 +6026,7 @@
     </row>
     <row r="295" spans="1:12" ht="45">
       <c r="A295" s="11" t="s">
-        <v>607</v>
+        <v>411</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>46</v>
@@ -6876,7 +6050,7 @@
         <v>24</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L296" s="4"/>
     </row>
@@ -6891,7 +6065,7 @@
         <v>25</v>
       </c>
       <c r="H297" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L297" s="4"/>
     </row>
@@ -6906,7 +6080,7 @@
         <v>190</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L298" s="4"/>
     </row>
@@ -6921,10 +6095,10 @@
         <v>193</v>
       </c>
       <c r="H299" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I299" s="11" t="s">
-        <v>595</v>
+        <v>399</v>
       </c>
       <c r="L299" s="4"/>
     </row>
@@ -6939,7 +6113,7 @@
         <v>196</v>
       </c>
       <c r="H300" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L300" s="4" t="s">
         <v>12</v>
@@ -6958,7 +6132,7 @@
         <v>46</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>597</v>
+        <v>401</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>41</v>
@@ -6976,7 +6150,7 @@
         <v>24</v>
       </c>
       <c r="H303" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L303" s="4"/>
     </row>
@@ -6991,7 +6165,7 @@
         <v>25</v>
       </c>
       <c r="H304" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L304" s="4"/>
     </row>
@@ -7006,7 +6180,7 @@
         <v>190</v>
       </c>
       <c r="H305" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L305" s="4"/>
     </row>
@@ -7021,10 +6195,10 @@
         <v>193</v>
       </c>
       <c r="H306" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>596</v>
+        <v>400</v>
       </c>
       <c r="L306" s="4"/>
     </row>
@@ -7039,14 +6213,14 @@
         <v>200</v>
       </c>
       <c r="H307" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L307" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:12">
-      <c r="C308" s="22"/>
+      <c r="C308" s="21"/>
       <c r="D308" s="15"/>
       <c r="L308" s="4"/>
     </row>
@@ -7079,7 +6253,7 @@
         <v>24</v>
       </c>
       <c r="H311" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L311" s="4"/>
     </row>
@@ -7094,7 +6268,7 @@
         <v>25</v>
       </c>
       <c r="H312" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L312" s="4"/>
     </row>
@@ -7109,7 +6283,7 @@
         <v>190</v>
       </c>
       <c r="H313" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L313" s="4"/>
     </row>
@@ -7159,7 +6333,7 @@
         <v>24</v>
       </c>
       <c r="H318" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L318" s="4"/>
     </row>
@@ -7174,7 +6348,7 @@
         <v>25</v>
       </c>
       <c r="H319" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L319" s="4"/>
     </row>
@@ -7189,7 +6363,7 @@
         <v>190</v>
       </c>
       <c r="H320" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L320" s="4"/>
     </row>
@@ -7204,10 +6378,10 @@
         <v>193</v>
       </c>
       <c r="H321" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I321" s="11" t="s">
-        <v>596</v>
+        <v>400</v>
       </c>
       <c r="L321" s="4"/>
     </row>
@@ -7222,7 +6396,7 @@
         <v>196</v>
       </c>
       <c r="H322" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L322" s="4" t="s">
         <v>12</v>
@@ -7259,7 +6433,7 @@
         <v>24</v>
       </c>
       <c r="H325" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L325" s="4"/>
     </row>
@@ -7274,7 +6448,7 @@
         <v>25</v>
       </c>
       <c r="H326" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L326" s="4"/>
     </row>
@@ -7289,7 +6463,7 @@
         <v>190</v>
       </c>
       <c r="H327" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L327" s="4"/>
     </row>
@@ -7304,10 +6478,10 @@
         <v>193</v>
       </c>
       <c r="H328" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="I328" s="11" t="s">
-        <v>595</v>
+        <v>399</v>
       </c>
       <c r="L328" s="4"/>
     </row>
@@ -7322,7 +6496,7 @@
         <v>200</v>
       </c>
       <c r="H329" s="11" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="L329" s="4" t="s">
         <v>12</v>
@@ -7331,4479 +6505,715 @@
     <row r="330" spans="1:12">
       <c r="L330" s="4"/>
     </row>
-    <row r="331" spans="1:12" s="24" customFormat="1">
-      <c r="A331" s="23"/>
-      <c r="B331" s="23"/>
-      <c r="D331" s="23"/>
-      <c r="E331" s="23"/>
-      <c r="F331" s="23"/>
-      <c r="G331" s="23"/>
-      <c r="H331" s="23"/>
-      <c r="I331" s="23"/>
-      <c r="L331" s="25"/>
+    <row r="331" spans="1:12" s="23" customFormat="1">
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
+      <c r="D331" s="22"/>
+      <c r="E331" s="22"/>
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
+      <c r="H331" s="22"/>
+      <c r="I331" s="22"/>
+      <c r="L331" s="24"/>
     </row>
     <row r="332" spans="1:12">
       <c r="L332" s="4"/>
     </row>
-    <row r="333" spans="1:12" ht="45">
-      <c r="A333" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D333" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F333" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L333" s="4"/>
-    </row>
-    <row r="334" spans="1:12" ht="30">
-      <c r="F334" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G334" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L334" s="4"/>
-    </row>
-    <row r="335" spans="1:12" ht="30">
+    <row r="335" spans="1:12" ht="45">
+      <c r="A335" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D335" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="F335" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G335" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L335" s="4"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="336" spans="1:12" ht="30">
+      <c r="E336" s="11">
+        <v>1</v>
+      </c>
       <c r="F336" s="11" t="s">
-        <v>207</v>
+        <v>416</v>
       </c>
       <c r="G336" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L336" s="4"/>
-    </row>
-    <row r="337" spans="1:12" ht="150">
+        <v>424</v>
+      </c>
+      <c r="H336" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="30">
+      <c r="E337" s="11">
+        <v>2</v>
+      </c>
       <c r="F337" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G337" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="L337" s="4"/>
-    </row>
-    <row r="338" spans="1:12">
-      <c r="L338" s="4"/>
-    </row>
-    <row r="339" spans="1:12">
-      <c r="L339" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="G337" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H337" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="30">
+      <c r="E338" s="11">
+        <v>3</v>
+      </c>
+      <c r="F338" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G338" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H338" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="45">
+      <c r="E339" s="11">
+        <v>4</v>
+      </c>
+      <c r="F339" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="H339" s="11" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="340" spans="1:12" ht="45">
-      <c r="A340" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D340" s="11" t="s">
-        <v>214</v>
+      <c r="E340" s="11">
+        <v>5</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L340" s="4"/>
-    </row>
-    <row r="341" spans="1:12" ht="30">
-      <c r="F341" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G341" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L341" s="4"/>
-    </row>
-    <row r="342" spans="1:12" ht="30">
+        <v>420</v>
+      </c>
+      <c r="G340" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="H340" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L340" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="45">
+      <c r="A342" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="F342" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G342" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L342" s="4"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="343" spans="1:12" ht="30">
+      <c r="E343" s="11">
+        <v>1</v>
+      </c>
       <c r="F343" s="11" t="s">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="G343" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L343" s="4"/>
-    </row>
-    <row r="344" spans="1:12" ht="150">
+        <v>424</v>
+      </c>
+      <c r="H343" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="30">
+      <c r="E344" s="11">
+        <v>2</v>
+      </c>
       <c r="F344" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G344" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L344" s="4"/>
-    </row>
-    <row r="345" spans="1:12">
+        <v>417</v>
+      </c>
+      <c r="G344" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H344" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="30">
+      <c r="E345" s="11">
+        <v>3</v>
+      </c>
       <c r="F345" s="11" t="s">
-        <v>195</v>
+        <v>418</v>
       </c>
       <c r="G345" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L345" s="4"/>
-    </row>
-    <row r="346" spans="1:12">
-      <c r="C346"/>
-      <c r="D346" s="15"/>
-      <c r="L346" s="4"/>
-    </row>
-    <row r="347" spans="1:12" ht="45">
-      <c r="A347" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D347" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="H345" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="45">
+      <c r="E346" s="11">
+        <v>4</v>
+      </c>
+      <c r="F346" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="H346" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="30">
+      <c r="E347" s="11">
+        <v>5</v>
+      </c>
+      <c r="F347" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G347" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="H347" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="30">
+      <c r="E348" s="11">
+        <v>6</v>
+      </c>
+      <c r="F348" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G348" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="H348" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="75">
+      <c r="E349" s="11">
+        <v>7</v>
+      </c>
+      <c r="F349" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G349" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H349" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="L349" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="45">
+      <c r="A351" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D351" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F351" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="30">
+      <c r="E352" s="11">
+        <v>1</v>
+      </c>
+      <c r="F352" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G352" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="30">
+      <c r="E353" s="11">
+        <v>2</v>
+      </c>
+      <c r="F353" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="G353" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F347" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L347" s="4"/>
-    </row>
-    <row r="348" spans="1:12" ht="30">
-      <c r="F348" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G348" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L348" s="4"/>
-    </row>
-    <row r="349" spans="1:12" ht="30">
-      <c r="F349" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G349" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L349" s="4"/>
-    </row>
-    <row r="350" spans="1:12" ht="30">
-      <c r="F350" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G350" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L350" s="4"/>
-    </row>
-    <row r="351" spans="1:12" ht="150">
-      <c r="F351" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G351" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L351" s="4"/>
-    </row>
-    <row r="352" spans="1:12" ht="30">
-      <c r="F352" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G352" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="L352" s="4"/>
-    </row>
-    <row r="353" spans="1:12">
-      <c r="L353" s="4"/>
-    </row>
-    <row r="354" spans="1:12" ht="45">
-      <c r="A354" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D354" s="11" t="s">
-        <v>219</v>
+    </row>
+    <row r="354" spans="1:12" ht="30">
+      <c r="E354" s="11">
+        <v>3</v>
       </c>
       <c r="F354" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L354" s="4"/>
-    </row>
-    <row r="355" spans="1:12" ht="30">
+        <v>418</v>
+      </c>
+      <c r="G354" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="45">
+      <c r="E355" s="11">
+        <v>4</v>
+      </c>
       <c r="F355" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G355" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L355" s="4"/>
+        <v>419</v>
+      </c>
     </row>
     <row r="356" spans="1:12" ht="30">
-      <c r="F356" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G356" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="L356" s="4"/>
+      <c r="E356" s="11">
+        <v>5</v>
+      </c>
+      <c r="F356" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G356" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="357" spans="1:12" ht="30">
-      <c r="F357" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="G357" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="L357" s="4"/>
-    </row>
-    <row r="358" spans="1:12">
-      <c r="L358" s="4"/>
-    </row>
-    <row r="359" spans="1:12">
-      <c r="L359" s="4"/>
+      <c r="E357" s="11">
+        <v>6</v>
+      </c>
+      <c r="F357" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G357" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="45">
+      <c r="E358" s="11">
+        <v>7</v>
+      </c>
+      <c r="F358" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="G358" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="L358" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="360" spans="1:12" ht="45">
       <c r="A360" s="11" t="s">
-        <v>222</v>
+        <v>436</v>
+      </c>
+      <c r="B360" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D360" s="15" t="s">
-        <v>221</v>
+        <v>413</v>
+      </c>
+      <c r="D360" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="F360" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L360" s="4"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="361" spans="1:12" ht="30">
+      <c r="E361" s="11">
+        <v>1</v>
+      </c>
       <c r="F361" s="11" t="s">
-        <v>22</v>
+        <v>416</v>
       </c>
       <c r="G361" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L361" s="4"/>
+        <v>424</v>
+      </c>
     </row>
     <row r="362" spans="1:12" ht="30">
-      <c r="F362" s="15" t="s">
-        <v>223</v>
+      <c r="E362" s="11">
+        <v>2</v>
+      </c>
+      <c r="F362" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="G362" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L362" s="4"/>
-    </row>
-    <row r="363" spans="1:12" ht="45">
-      <c r="F363" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G363" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L363" s="4"/>
-    </row>
-    <row r="364" spans="1:12" ht="195">
-      <c r="F364" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G364" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L364" s="4"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="30">
+      <c r="E363" s="11">
+        <v>3</v>
+      </c>
+      <c r="F363" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G363" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="45">
+      <c r="E364" s="11">
+        <v>4</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="365" spans="1:12" ht="30">
-      <c r="F365" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="G365" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="L365" s="4"/>
+      <c r="E365" s="11">
+        <v>5</v>
+      </c>
+      <c r="F365" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G365" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="366" spans="1:12" ht="30">
-      <c r="F366" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G366" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="L366" s="4"/>
-    </row>
-    <row r="367" spans="1:12">
-      <c r="L367" s="4"/>
-    </row>
-    <row r="368" spans="1:12">
-      <c r="L368" s="4"/>
+      <c r="E366" s="11">
+        <v>6</v>
+      </c>
+      <c r="F366" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G366" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="75">
+      <c r="E367" s="11">
+        <v>7</v>
+      </c>
+      <c r="F367" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="G367" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="L367" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="369" spans="1:12" ht="45">
       <c r="A369" s="11" t="s">
-        <v>233</v>
+        <v>437</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D369" s="15" t="s">
-        <v>304</v>
+        <v>413</v>
+      </c>
+      <c r="D369" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="F369" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L369" s="4"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="370" spans="1:12" ht="30">
+      <c r="E370" s="11">
+        <v>1</v>
+      </c>
       <c r="F370" s="11" t="s">
-        <v>22</v>
+        <v>416</v>
       </c>
       <c r="G370" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L370" s="4"/>
+        <v>424</v>
+      </c>
     </row>
     <row r="371" spans="1:12" ht="30">
-      <c r="F371" s="15" t="s">
-        <v>223</v>
+      <c r="E371" s="11">
+        <v>2</v>
+      </c>
+      <c r="F371" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="G371" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L371" s="4"/>
-    </row>
-    <row r="372" spans="1:12" ht="45">
-      <c r="F372" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G372" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L372" s="4"/>
-    </row>
-    <row r="373" spans="1:12" ht="225">
-      <c r="F373" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G373" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L373" s="4"/>
-    </row>
-    <row r="374" spans="1:12" ht="30">
-      <c r="F374" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G374" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="L374" s="4"/>
-    </row>
-    <row r="375" spans="1:12">
-      <c r="F375" s="15"/>
-      <c r="G375" s="15"/>
-      <c r="L375" s="4"/>
-    </row>
-    <row r="376" spans="1:12">
-      <c r="L376" s="4"/>
-    </row>
-    <row r="377" spans="1:12" ht="45">
-      <c r="A377" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D377" s="15" t="s">
-        <v>304</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="30">
+      <c r="E372" s="11">
+        <v>3</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="E373" s="11">
+        <v>4</v>
+      </c>
+      <c r="F373" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="60">
+      <c r="E374" s="11">
+        <v>5</v>
+      </c>
+      <c r="F374" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="L374" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="45">
+      <c r="A376" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D376" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F376" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="30">
+      <c r="E377" s="11">
+        <v>1</v>
       </c>
       <c r="F377" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L377" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="378" spans="1:12" ht="30">
+      <c r="E378" s="11">
+        <v>2</v>
+      </c>
       <c r="F378" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G378" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L378" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="G378" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="379" spans="1:12" ht="30">
-      <c r="F379" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G379" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L379" s="4"/>
-    </row>
-    <row r="380" spans="1:12" ht="30">
-      <c r="F380" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G380" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L380" s="4"/>
-    </row>
-    <row r="381" spans="1:12" ht="30">
-      <c r="F381" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G381" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="L381" s="4"/>
-    </row>
-    <row r="382" spans="1:12">
-      <c r="L382" s="4"/>
-    </row>
-    <row r="383" spans="1:12">
-      <c r="L383" s="4"/>
-    </row>
-    <row r="384" spans="1:12">
-      <c r="L384" s="4"/>
-    </row>
-    <row r="385" spans="1:12" ht="45">
-      <c r="A385" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D385" s="15" t="s">
-        <v>311</v>
+      <c r="E379" s="11">
+        <v>3</v>
+      </c>
+      <c r="F379" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="E380" s="11">
+        <v>4</v>
+      </c>
+      <c r="F380" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="60">
+      <c r="E381" s="11">
+        <v>5</v>
+      </c>
+      <c r="F381" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G381" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="30">
+      <c r="E382" s="11">
+        <v>6</v>
+      </c>
+      <c r="F382" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G382" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="45">
+      <c r="A384" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D384" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F384" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="30">
+      <c r="E385" s="11">
+        <v>1</v>
       </c>
       <c r="F385" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L385" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="G385" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="386" spans="1:12" ht="30">
+      <c r="E386" s="11">
+        <v>2</v>
+      </c>
       <c r="F386" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G386" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L386" s="4"/>
-    </row>
-    <row r="387" spans="1:12" ht="30">
-      <c r="F387" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G387" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L387" s="4"/>
-    </row>
-    <row r="388" spans="1:12" ht="45">
-      <c r="F388" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G388" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L388" s="4"/>
-    </row>
-    <row r="389" spans="1:12" ht="30">
-      <c r="F389" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G389" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L389" s="4"/>
-    </row>
-    <row r="390" spans="1:12" ht="30">
-      <c r="F390" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="G390" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L390" s="4"/>
-    </row>
-    <row r="391" spans="1:12">
-      <c r="L391" s="4"/>
-    </row>
-    <row r="392" spans="1:12">
-      <c r="L392" s="4"/>
-    </row>
-    <row r="393" spans="1:12" ht="45">
-      <c r="A393" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D393" s="15" t="s">
-        <v>315</v>
+        <v>417</v>
+      </c>
+      <c r="G386" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="45">
+      <c r="E387" s="11">
+        <v>3</v>
+      </c>
+      <c r="F387" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G387" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="30">
+      <c r="E388" s="11">
+        <v>4</v>
+      </c>
+      <c r="F388" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G388" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
+      <c r="E389" s="11">
+        <v>5</v>
+      </c>
+      <c r="F389" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G389" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="L389" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="45">
+      <c r="A391" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D391" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F391" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="30">
+      <c r="E392" s="11">
+        <v>1</v>
+      </c>
+      <c r="F392" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G392" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="30">
+      <c r="E393" s="11">
+        <v>2</v>
       </c>
       <c r="F393" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L393" s="4"/>
-    </row>
-    <row r="394" spans="1:12" ht="30">
+        <v>417</v>
+      </c>
+      <c r="G393" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="45">
+      <c r="E394" s="11">
+        <v>3</v>
+      </c>
       <c r="F394" s="11" t="s">
-        <v>22</v>
+        <v>449</v>
       </c>
       <c r="G394" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L394" s="4"/>
+        <v>450</v>
+      </c>
     </row>
     <row r="395" spans="1:12" ht="30">
-      <c r="F395" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G395" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L395" s="4"/>
-    </row>
-    <row r="396" spans="1:12" ht="45">
-      <c r="F396" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G396" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L396" s="4"/>
-    </row>
-    <row r="397" spans="1:12" ht="30">
-      <c r="F397" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G397" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L397" s="4"/>
-    </row>
-    <row r="398" spans="1:12" ht="30">
-      <c r="F398" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G398" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="L398" s="4"/>
-    </row>
-    <row r="399" spans="1:12">
-      <c r="L399" s="4"/>
-    </row>
-    <row r="400" spans="1:12" ht="45">
-      <c r="A400" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C400" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D400" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="F400" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L400" s="4"/>
-    </row>
-    <row r="401" spans="1:12" ht="30">
-      <c r="F401" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G401" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L401" s="4"/>
-    </row>
-    <row r="402" spans="1:12" ht="30">
-      <c r="F402" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G402" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L402" s="4"/>
-    </row>
-    <row r="403" spans="1:12" ht="45">
-      <c r="F403" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G403" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L403" s="4"/>
-    </row>
-    <row r="404" spans="1:12" ht="30">
-      <c r="F404" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G404" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L404" s="4"/>
-    </row>
-    <row r="405" spans="1:12" ht="30">
-      <c r="F405" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="G405" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="L405" s="4"/>
-    </row>
-    <row r="406" spans="1:12">
-      <c r="F406"/>
-      <c r="G406"/>
-      <c r="L406" s="4"/>
-    </row>
-    <row r="407" spans="1:12">
-      <c r="L407" s="4"/>
-    </row>
-    <row r="408" spans="1:12">
-      <c r="L408" s="4"/>
-    </row>
-    <row r="409" spans="1:12" ht="45">
-      <c r="A409" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C409" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D409" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="F409" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L409" s="4"/>
-    </row>
-    <row r="410" spans="1:12" ht="30">
-      <c r="F410" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G410" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L410" s="4"/>
-    </row>
-    <row r="411" spans="1:12" ht="30">
-      <c r="F411" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G411" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L411" s="4"/>
-    </row>
-    <row r="412" spans="1:12" ht="45">
-      <c r="F412" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G412" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L412" s="4"/>
-    </row>
-    <row r="413" spans="1:12" ht="30">
-      <c r="F413" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G413" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L413" s="4"/>
-    </row>
-    <row r="414" spans="1:12" ht="30">
-      <c r="F414" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="G414" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="L414" s="4"/>
-    </row>
-    <row r="415" spans="1:12">
-      <c r="F415"/>
-      <c r="G415"/>
-      <c r="L415" s="4"/>
-    </row>
-    <row r="416" spans="1:12">
-      <c r="L416" s="4"/>
-    </row>
-    <row r="417" spans="1:12" ht="45">
-      <c r="A417" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C417" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D417" t="s">
-        <v>322</v>
-      </c>
-      <c r="F417" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L417" s="4"/>
-    </row>
-    <row r="418" spans="1:12" ht="30">
-      <c r="F418" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G418" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L418" s="4"/>
-    </row>
-    <row r="419" spans="1:12" ht="30">
-      <c r="F419" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G419" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L419" s="4"/>
-    </row>
-    <row r="420" spans="1:12" ht="45">
-      <c r="F420" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G420" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="L420" s="4"/>
-    </row>
-    <row r="421" spans="1:12" ht="210">
-      <c r="F421" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="G421" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="L421" s="4"/>
-    </row>
-    <row r="422" spans="1:12">
-      <c r="L422" s="4"/>
-    </row>
-    <row r="423" spans="1:12" ht="45">
-      <c r="A423" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C423" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D423" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F423" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L423" s="4"/>
-    </row>
-    <row r="424" spans="1:12" ht="30">
-      <c r="F424" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G424" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L424" s="4"/>
-    </row>
-    <row r="425" spans="1:12" ht="30">
-      <c r="F425" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G425" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L425" s="4"/>
-    </row>
-    <row r="426" spans="1:12" ht="45">
-      <c r="F426" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G426" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="L426" s="4"/>
-    </row>
-    <row r="427" spans="1:12" ht="30">
-      <c r="F427" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G427" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L427" s="4"/>
-    </row>
-    <row r="428" spans="1:12" ht="30">
-      <c r="F428" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="G428" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L428" s="4"/>
-    </row>
-    <row r="429" spans="1:12">
-      <c r="L429" s="4"/>
-    </row>
-    <row r="430" spans="1:12">
-      <c r="L430" s="4"/>
-    </row>
-    <row r="431" spans="1:12" ht="45">
-      <c r="A431" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C431" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D431" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="F431" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L431" s="4"/>
-    </row>
-    <row r="432" spans="1:12" ht="30">
-      <c r="F432" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G432" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L432" s="4"/>
-    </row>
-    <row r="433" spans="1:12" ht="30">
-      <c r="F433" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G433" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L433" s="4"/>
-    </row>
-    <row r="434" spans="1:12" ht="45">
-      <c r="F434" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="G434" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L434" s="4"/>
-    </row>
-    <row r="435" spans="1:12" ht="30">
-      <c r="F435" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G435" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L435" s="4"/>
-    </row>
-    <row r="436" spans="1:12" ht="30">
-      <c r="F436" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="G436" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="L436" s="4"/>
-    </row>
-    <row r="437" spans="1:12">
-      <c r="L437" s="4"/>
-    </row>
-    <row r="438" spans="1:12">
-      <c r="L438" s="4"/>
-    </row>
-    <row r="439" spans="1:12">
-      <c r="L439" s="4"/>
-    </row>
-    <row r="440" spans="1:12" ht="45">
-      <c r="A440" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C440" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D440" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="F440" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L440" s="4"/>
-    </row>
-    <row r="441" spans="1:12" ht="30">
-      <c r="F441" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G441" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L441" s="4"/>
-    </row>
-    <row r="442" spans="1:12" ht="30">
-      <c r="F442" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G442" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L442" s="4"/>
-    </row>
-    <row r="443" spans="1:12" ht="45">
-      <c r="F443" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="G443" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L443" s="4"/>
-    </row>
-    <row r="444" spans="1:12" ht="30">
-      <c r="F444" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G444" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L444" s="4"/>
-    </row>
-    <row r="445" spans="1:12" ht="30">
-      <c r="F445" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G445" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="L445" s="4"/>
-    </row>
-    <row r="446" spans="1:12">
-      <c r="L446" s="4"/>
-    </row>
-    <row r="447" spans="1:12">
-      <c r="L447" s="4"/>
-    </row>
-    <row r="448" spans="1:12" ht="45">
-      <c r="A448" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C448" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D448" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="F448" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L448" s="4"/>
-    </row>
-    <row r="449" spans="1:12" ht="30">
-      <c r="F449" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G449" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L449" s="4"/>
-    </row>
-    <row r="450" spans="1:12" ht="30">
-      <c r="F450" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G450" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L450" s="4"/>
-    </row>
-    <row r="451" spans="1:12" ht="45">
-      <c r="F451" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="G451" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L451" s="4"/>
-    </row>
-    <row r="452" spans="1:12" ht="45">
-      <c r="F452" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="G452" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L452" s="4"/>
-    </row>
-    <row r="453" spans="1:12">
-      <c r="F453" s="15"/>
-      <c r="G453" s="15"/>
-      <c r="L453" s="4"/>
-    </row>
-    <row r="454" spans="1:12">
-      <c r="L454" s="4"/>
-    </row>
-    <row r="455" spans="1:12" ht="45">
-      <c r="A455" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C455" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D455" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F455" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L455" s="4"/>
-    </row>
-    <row r="456" spans="1:12" ht="30">
-      <c r="F456" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G456" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L456" s="4"/>
-    </row>
-    <row r="457" spans="1:12" ht="30">
-      <c r="F457" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G457" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L457" s="4"/>
-    </row>
-    <row r="458" spans="1:12" ht="30">
-      <c r="F458" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="G458" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K458" s="4"/>
-      <c r="L458" s="4"/>
-    </row>
-    <row r="459" spans="1:12" ht="120">
-      <c r="F459" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="G459" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="K459" s="4"/>
-      <c r="L459" s="4"/>
-    </row>
-    <row r="460" spans="1:12">
-      <c r="K460" s="4"/>
-      <c r="L460" s="4"/>
-    </row>
-    <row r="461" spans="1:12">
-      <c r="K461" s="4"/>
-      <c r="L461" s="4"/>
-    </row>
-    <row r="462" spans="1:12" ht="45">
-      <c r="A462" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C462" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D462" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F462" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K462" s="4"/>
-      <c r="L462" s="4"/>
-    </row>
-    <row r="463" spans="1:12" ht="30">
-      <c r="F463" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G463" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K463" s="4"/>
-      <c r="L463" s="4"/>
-    </row>
-    <row r="464" spans="1:12" ht="45">
-      <c r="F464" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="G464" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="K464" s="4"/>
-      <c r="L464" s="4"/>
-    </row>
-    <row r="465" spans="1:12" ht="30">
-      <c r="F465" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G465" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K465" s="4"/>
-      <c r="L465" s="4"/>
-    </row>
-    <row r="466" spans="1:12">
-      <c r="F466"/>
-      <c r="G466"/>
-      <c r="K466" s="4"/>
-      <c r="L466" s="4"/>
-    </row>
-    <row r="467" spans="1:12">
-      <c r="K467" s="4"/>
-      <c r="L467" s="4"/>
-    </row>
-    <row r="468" spans="1:12" ht="45">
-      <c r="A468" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C468" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D468" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F468" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K468" s="4"/>
-      <c r="L468" s="4"/>
-    </row>
-    <row r="469" spans="1:12" ht="30">
-      <c r="F469" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G469" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K469" s="4"/>
-      <c r="L469" s="4"/>
-    </row>
-    <row r="470" spans="1:12" ht="60">
-      <c r="F470" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G470" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="K470" s="4"/>
-      <c r="L470" s="4"/>
-    </row>
-    <row r="471" spans="1:12">
-      <c r="F471" s="15"/>
-      <c r="G471" s="15"/>
-      <c r="K471" s="4"/>
-      <c r="L471" s="4"/>
-    </row>
-    <row r="472" spans="1:12">
-      <c r="F472"/>
-      <c r="G472"/>
-      <c r="K472" s="4"/>
-      <c r="L472" s="4"/>
-    </row>
-    <row r="473" spans="1:12" ht="45">
-      <c r="A473" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D473" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F473" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K473" s="4"/>
-      <c r="L473" s="4"/>
-    </row>
-    <row r="474" spans="1:12" ht="30">
-      <c r="F474" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G474" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K474" s="4"/>
-      <c r="L474" s="4"/>
-    </row>
-    <row r="475" spans="1:12" ht="60">
-      <c r="F475" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G475" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="K475" s="4"/>
-      <c r="L475" s="4"/>
-    </row>
-    <row r="476" spans="1:12">
-      <c r="K476" s="4"/>
-      <c r="L476" s="4"/>
-    </row>
-    <row r="477" spans="1:12" ht="45">
-      <c r="A477" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D477" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F477" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K477" s="4"/>
-      <c r="L477" s="4"/>
-    </row>
-    <row r="478" spans="1:12" ht="30">
-      <c r="F478" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G478" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K478" s="4"/>
-      <c r="L478" s="4"/>
-    </row>
-    <row r="479" spans="1:12" ht="60">
-      <c r="F479" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G479" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="K479" s="4"/>
-      <c r="L479" s="4"/>
-    </row>
-    <row r="480" spans="1:12">
-      <c r="K480" s="4"/>
-      <c r="L480" s="4"/>
-    </row>
-    <row r="481" spans="1:12" ht="45">
-      <c r="A481" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D481" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F481" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K481" s="4"/>
-      <c r="L481" s="4"/>
-    </row>
-    <row r="482" spans="1:12" ht="30">
-      <c r="F482" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G482" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K482" s="4"/>
-      <c r="L482" s="4"/>
-    </row>
-    <row r="483" spans="1:12" ht="45">
-      <c r="F483" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="G483" s="15"/>
-      <c r="K483" s="4"/>
-      <c r="L483" s="4"/>
-    </row>
-    <row r="484" spans="1:12" ht="60">
-      <c r="F484" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="G484" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="K484" s="4"/>
-      <c r="L484" s="4"/>
-    </row>
-    <row r="485" spans="1:12">
-      <c r="F485" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G485" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="K485" s="4"/>
-      <c r="L485" s="4"/>
-    </row>
-    <row r="486" spans="1:12">
-      <c r="K486" s="4"/>
-      <c r="L486" s="4"/>
-    </row>
-    <row r="487" spans="1:12">
-      <c r="K487" s="4"/>
-      <c r="L487" s="4"/>
-    </row>
-    <row r="488" spans="1:12" ht="45">
-      <c r="A488" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C488" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D488" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="F488" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K488" s="4"/>
-      <c r="L488" s="4"/>
-    </row>
-    <row r="489" spans="1:12" ht="30">
-      <c r="F489" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G489" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K489" s="4"/>
-      <c r="L489" s="4"/>
-    </row>
-    <row r="490" spans="1:12" ht="45">
-      <c r="F490" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G490" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="K490" s="4"/>
-      <c r="L490" s="4"/>
-    </row>
-    <row r="491" spans="1:12" ht="45">
-      <c r="F491" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G491" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="K491" s="4"/>
-      <c r="L491" s="4"/>
-    </row>
-    <row r="492" spans="1:12" ht="30">
-      <c r="F492" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G492" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K492" s="4"/>
-      <c r="L492" s="4"/>
-    </row>
-    <row r="493" spans="1:12" ht="30">
-      <c r="F493" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="G493" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="K493" s="4"/>
-      <c r="L493" s="4"/>
-    </row>
-    <row r="494" spans="1:12">
-      <c r="K494" s="4"/>
-      <c r="L494" s="4"/>
-    </row>
-    <row r="495" spans="1:12" ht="45">
-      <c r="A495" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C495" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D495" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="F495" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K495" s="4"/>
-      <c r="L495" s="4"/>
-    </row>
-    <row r="496" spans="1:12" ht="30">
-      <c r="F496" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G496" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K496" s="4"/>
-      <c r="L496" s="4"/>
-    </row>
-    <row r="497" spans="1:12" ht="45">
-      <c r="F497" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G497" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="K497" s="4"/>
-      <c r="L497" s="4"/>
-    </row>
-    <row r="498" spans="1:12" ht="30">
-      <c r="F498" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G498" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K498" s="4"/>
-      <c r="L498" s="4"/>
-    </row>
-    <row r="499" spans="1:12" ht="30">
-      <c r="F499" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="G499" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="K499" s="4"/>
-      <c r="L499" s="4"/>
-    </row>
-    <row r="500" spans="1:12" ht="30">
-      <c r="F500" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="G500" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="K500" s="4"/>
-      <c r="L500" s="4"/>
-    </row>
-    <row r="501" spans="1:12" ht="30">
-      <c r="F501" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="G501" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="K501" s="4"/>
-      <c r="L501" s="4"/>
-    </row>
-    <row r="502" spans="1:12">
-      <c r="K502" s="4"/>
-      <c r="L502" s="4"/>
-    </row>
-    <row r="503" spans="1:12">
-      <c r="K503" s="4"/>
-      <c r="L503" s="4"/>
-    </row>
-    <row r="504" spans="1:12" ht="45">
-      <c r="A504" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C504" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D504" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="F504" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K504" s="4"/>
-      <c r="L504" s="4"/>
-    </row>
-    <row r="505" spans="1:12" ht="30">
-      <c r="F505" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G505" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K505" s="4"/>
-      <c r="L505" s="4"/>
-    </row>
-    <row r="506" spans="1:12" ht="45">
-      <c r="F506" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G506" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="K506" s="4"/>
-      <c r="L506" s="4"/>
-    </row>
-    <row r="507" spans="1:12" ht="30">
-      <c r="F507" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G507" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K507" s="4"/>
-      <c r="L507" s="4"/>
-    </row>
-    <row r="508" spans="1:12" ht="30">
-      <c r="F508" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="G508" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="K508" s="4"/>
-      <c r="L508" s="4"/>
-    </row>
-    <row r="509" spans="1:12" ht="30">
-      <c r="F509" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="G509" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="K509" s="4"/>
-      <c r="L509" s="4"/>
-    </row>
-    <row r="510" spans="1:12" ht="30">
-      <c r="F510" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="G510" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="K510" s="4"/>
-      <c r="L510" s="4"/>
-    </row>
-    <row r="511" spans="1:12" ht="45">
-      <c r="F511" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="G511" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K511" s="4"/>
-      <c r="L511" s="4"/>
-    </row>
-    <row r="512" spans="1:12">
-      <c r="K512" s="4"/>
-      <c r="L512" s="4"/>
-    </row>
-    <row r="513" spans="1:12">
-      <c r="K513" s="4"/>
-      <c r="L513" s="4"/>
-    </row>
-    <row r="514" spans="1:12">
-      <c r="K514" s="4"/>
-      <c r="L514" s="4"/>
-    </row>
-    <row r="515" spans="1:12">
-      <c r="K515" s="4"/>
-      <c r="L515" s="4"/>
-    </row>
-    <row r="516" spans="1:12" ht="45">
-      <c r="A516" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C516" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D516" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="F516" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K516" s="4"/>
-      <c r="L516" s="4"/>
-    </row>
-    <row r="517" spans="1:12" ht="30">
-      <c r="F517" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G517" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K517" s="4"/>
-      <c r="L517" s="4"/>
-    </row>
-    <row r="518" spans="1:12" ht="45">
-      <c r="F518" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G518" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="K518" s="4"/>
-      <c r="L518" s="4"/>
-    </row>
-    <row r="519" spans="1:12" ht="30">
-      <c r="F519" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G519" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K519" s="4"/>
-      <c r="L519" s="4"/>
-    </row>
-    <row r="520" spans="1:12" ht="30">
-      <c r="F520" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="G520" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="K520" s="4"/>
-      <c r="L520" s="4"/>
-    </row>
-    <row r="521" spans="1:12">
-      <c r="K521" s="4"/>
-      <c r="L521" s="4"/>
-    </row>
-    <row r="522" spans="1:12">
-      <c r="K522" s="4"/>
-      <c r="L522" s="4"/>
-    </row>
-    <row r="523" spans="1:12" ht="45">
-      <c r="A523" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C523" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D523" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="F523" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K523" s="4"/>
-      <c r="L523" s="4"/>
-    </row>
-    <row r="524" spans="1:12" ht="30">
-      <c r="F524" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G524" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K524" s="4"/>
-      <c r="L524" s="4"/>
-    </row>
-    <row r="525" spans="1:12" ht="45">
-      <c r="F525" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G525" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="K525" s="4"/>
-      <c r="L525" s="4"/>
-    </row>
-    <row r="526" spans="1:12" ht="30">
-      <c r="F526" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G526" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K526" s="4"/>
-      <c r="L526" s="4"/>
-    </row>
-    <row r="527" spans="1:12" ht="30">
-      <c r="F527" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="G527" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="K527" s="4"/>
-      <c r="L527" s="4"/>
-    </row>
-    <row r="528" spans="1:12">
-      <c r="K528" s="4"/>
-      <c r="L528" s="4"/>
-    </row>
-    <row r="529" spans="1:12">
-      <c r="K529" s="4"/>
-      <c r="L529" s="4"/>
-    </row>
-    <row r="530" spans="1:12">
-      <c r="K530" s="4"/>
-      <c r="L530" s="4"/>
-    </row>
-    <row r="531" spans="1:12">
-      <c r="K531" s="4"/>
-      <c r="L531" s="4"/>
-    </row>
-    <row r="532" spans="1:12" ht="45">
-      <c r="A532" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C532" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D532" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="F532" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K532" s="4"/>
-      <c r="L532" s="4"/>
-    </row>
-    <row r="533" spans="1:12" ht="30">
-      <c r="F533" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G533" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K533" s="4"/>
-      <c r="L533" s="4"/>
-    </row>
-    <row r="534" spans="1:12" ht="45">
-      <c r="F534" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G534" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="K534" s="4"/>
-      <c r="L534" s="4"/>
-    </row>
-    <row r="535" spans="1:12" ht="30">
-      <c r="F535" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G535" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K535" s="4"/>
-      <c r="L535" s="4"/>
-    </row>
-    <row r="536" spans="1:12" ht="30">
-      <c r="F536" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="G536" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="K536" s="4"/>
-      <c r="L536" s="4"/>
-    </row>
-    <row r="537" spans="1:12" ht="30">
-      <c r="F537" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="G537" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="K537" s="4"/>
-      <c r="L537" s="4"/>
-    </row>
-    <row r="538" spans="1:12">
-      <c r="K538" s="4"/>
-      <c r="L538" s="4"/>
-    </row>
-    <row r="539" spans="1:12">
-      <c r="K539" s="4"/>
-      <c r="L539" s="4"/>
-    </row>
-    <row r="540" spans="1:12" ht="45">
-      <c r="A540" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B540" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C540" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D540" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="F540" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K540" s="4"/>
-      <c r="L540" s="4"/>
-    </row>
-    <row r="541" spans="1:12" ht="30">
-      <c r="F541" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G541" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K541" s="4"/>
-      <c r="L541" s="4"/>
-    </row>
-    <row r="542" spans="1:12" ht="45">
-      <c r="F542" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G542" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K542" s="4"/>
-      <c r="L542" s="4"/>
-    </row>
-    <row r="543" spans="1:12" ht="120">
-      <c r="F543" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="G543" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="K543" s="4"/>
-      <c r="L543" s="4"/>
-    </row>
-    <row r="544" spans="1:12">
-      <c r="K544" s="4"/>
-      <c r="L544" s="4"/>
-    </row>
-    <row r="545" spans="1:12">
-      <c r="K545" s="4"/>
-      <c r="L545" s="4"/>
-    </row>
-    <row r="546" spans="1:12" ht="45">
-      <c r="A546" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B546" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C546" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D546" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="F546" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K546" s="4"/>
-      <c r="L546" s="4"/>
-    </row>
-    <row r="547" spans="1:12" ht="30">
-      <c r="F547" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G547" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K547" s="4"/>
-      <c r="L547" s="4"/>
-    </row>
-    <row r="548" spans="1:12" ht="45">
-      <c r="F548" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G548" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K548" s="4"/>
-      <c r="L548" s="4"/>
-    </row>
-    <row r="549" spans="1:12" ht="120">
-      <c r="F549" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="G549" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="K549" s="4"/>
-      <c r="L549" s="4"/>
-    </row>
-    <row r="550" spans="1:12" ht="30">
-      <c r="F550" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="G550" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="K550" s="4"/>
-      <c r="L550" s="4"/>
-    </row>
-    <row r="551" spans="1:12" ht="30">
-      <c r="F551" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G551" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="K551" s="4"/>
-      <c r="L551" s="4"/>
-    </row>
-    <row r="552" spans="1:12">
-      <c r="F552" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G552" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K552" s="4"/>
-      <c r="L552" s="4"/>
-    </row>
-    <row r="553" spans="1:12">
-      <c r="D553" s="18"/>
-      <c r="K553" s="4"/>
-      <c r="L553" s="4"/>
-    </row>
-    <row r="554" spans="1:12" ht="45">
-      <c r="A554" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B554" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C554" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D554" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="F554" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K554" s="4"/>
-      <c r="L554" s="4"/>
-    </row>
-    <row r="555" spans="1:12" ht="30">
-      <c r="F555" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G555" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K555" s="4"/>
-      <c r="L555" s="4"/>
-    </row>
-    <row r="556" spans="1:12" ht="45">
-      <c r="F556" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G556" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K556" s="4"/>
-      <c r="L556" s="4"/>
-    </row>
-    <row r="557" spans="1:12" ht="120">
-      <c r="F557" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="G557" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="K557" s="4"/>
-      <c r="L557" s="4"/>
-    </row>
-    <row r="558" spans="1:12" ht="30">
-      <c r="F558" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G558" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="K558" s="4"/>
-      <c r="L558" s="4"/>
-    </row>
-    <row r="559" spans="1:12" ht="30">
-      <c r="F559" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G559" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="K559" s="4"/>
-      <c r="L559" s="4"/>
-    </row>
-    <row r="560" spans="1:12">
-      <c r="F560" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G560" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K560" s="4"/>
-      <c r="L560" s="4"/>
-    </row>
-    <row r="561" spans="1:12">
-      <c r="F561" s="5"/>
-      <c r="G561" s="5"/>
-      <c r="K561" s="4"/>
-      <c r="L561" s="4"/>
-    </row>
-    <row r="562" spans="1:12" ht="45">
-      <c r="A562" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B562" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C562" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D562" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F562" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K562" s="4"/>
-      <c r="L562" s="4"/>
-    </row>
-    <row r="563" spans="1:12" ht="30">
-      <c r="F563" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G563" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K563" s="4"/>
-      <c r="L563" s="4"/>
-    </row>
-    <row r="564" spans="1:12" ht="45">
-      <c r="F564" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G564" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K564" s="4"/>
-      <c r="L564" s="4"/>
-    </row>
-    <row r="565" spans="1:12" ht="120">
-      <c r="F565" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="G565" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="K565" s="4"/>
-      <c r="L565" s="4"/>
-    </row>
-    <row r="566" spans="1:12" ht="30">
-      <c r="F566" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G566" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="K566" s="4"/>
-      <c r="L566" s="4"/>
-    </row>
-    <row r="567" spans="1:12">
-      <c r="F567" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G567" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K567" s="4"/>
-      <c r="L567" s="4"/>
-    </row>
-    <row r="568" spans="1:12">
-      <c r="F568" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="G568" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K568" s="4"/>
-      <c r="L568" s="4"/>
-    </row>
-    <row r="569" spans="1:12">
-      <c r="K569" s="4"/>
-      <c r="L569" s="4"/>
-    </row>
-    <row r="570" spans="1:12">
-      <c r="F570" s="5"/>
-      <c r="G570" s="5"/>
-      <c r="K570" s="4"/>
-      <c r="L570" s="4"/>
-    </row>
-    <row r="571" spans="1:12" ht="45">
-      <c r="A571" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B571" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C571" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D571" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="F571" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K571" s="4"/>
-      <c r="L571" s="4"/>
-    </row>
-    <row r="572" spans="1:12" ht="30">
-      <c r="F572" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G572" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K572" s="4"/>
-      <c r="L572" s="4"/>
-    </row>
-    <row r="573" spans="1:12" ht="45">
-      <c r="F573" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G573" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K573" s="4"/>
-      <c r="L573" s="4"/>
-    </row>
-    <row r="574" spans="1:12" ht="120">
-      <c r="F574" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="G574" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="K574" s="4"/>
-      <c r="L574" s="4"/>
-    </row>
-    <row r="575" spans="1:12" ht="30">
-      <c r="F575" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G575" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="K575" s="4"/>
-      <c r="L575" s="4"/>
-    </row>
-    <row r="576" spans="1:12">
-      <c r="F576" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G576" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K576" s="4"/>
-      <c r="L576" s="4"/>
-    </row>
-    <row r="577" spans="1:12">
-      <c r="F577" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="G577" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K577" s="4"/>
-      <c r="L577" s="4"/>
-    </row>
-    <row r="578" spans="1:12">
-      <c r="K578" s="4"/>
-      <c r="L578" s="4"/>
-    </row>
-    <row r="579" spans="1:12">
-      <c r="K579" s="4"/>
-      <c r="L579" s="4"/>
-    </row>
-    <row r="580" spans="1:12" ht="45">
-      <c r="A580" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B580" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C580" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D580" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="F580" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K580" s="4"/>
-      <c r="L580" s="4"/>
-    </row>
-    <row r="581" spans="1:12" ht="30">
-      <c r="F581" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G581" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K581" s="4"/>
-      <c r="L581" s="4"/>
-    </row>
-    <row r="582" spans="1:12" ht="45">
-      <c r="F582" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G582" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K582" s="4"/>
-      <c r="L582" s="4"/>
-    </row>
-    <row r="583" spans="1:12" ht="120">
-      <c r="F583" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="G583" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="K583" s="4"/>
-      <c r="L583" s="4"/>
-    </row>
-    <row r="584" spans="1:12" ht="30">
-      <c r="F584" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G584" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="K584" s="4"/>
-      <c r="L584" s="4"/>
-    </row>
-    <row r="585" spans="1:12">
-      <c r="F585" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G585" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K585" s="4"/>
-      <c r="L585" s="4"/>
-    </row>
-    <row r="586" spans="1:12">
-      <c r="F586" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="G586" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="K586" s="4"/>
-      <c r="L586" s="4"/>
-    </row>
-    <row r="587" spans="1:12">
-      <c r="K587" s="4"/>
-      <c r="L587" s="4"/>
-    </row>
-    <row r="588" spans="1:12" ht="45">
-      <c r="A588" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B588" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C588" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D588" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="F588" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K588" s="4"/>
-      <c r="L588" s="4"/>
-    </row>
-    <row r="589" spans="1:12" ht="30">
-      <c r="F589" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G589" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K589" s="4"/>
-      <c r="L589" s="4"/>
-    </row>
-    <row r="590" spans="1:12" ht="45">
-      <c r="F590" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G590" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="K590" s="4"/>
-      <c r="L590" s="4"/>
-    </row>
-    <row r="591" spans="1:12" ht="75">
-      <c r="F591" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="G591" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="K591" s="4"/>
-      <c r="L591" s="4"/>
-    </row>
-    <row r="592" spans="1:12">
-      <c r="K592" s="4"/>
-      <c r="L592" s="4"/>
-    </row>
-    <row r="593" spans="1:12" ht="45">
-      <c r="A593" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B593" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C593" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D593" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="F593" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K593" s="4"/>
-      <c r="L593" s="4"/>
-    </row>
-    <row r="594" spans="1:12" ht="30">
-      <c r="F594" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G594" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K594" s="4"/>
-      <c r="L594" s="4"/>
-    </row>
-    <row r="595" spans="1:12" ht="45">
-      <c r="F595" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G595" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="K595" s="4"/>
-      <c r="L595" s="4"/>
-    </row>
-    <row r="596" spans="1:12" ht="75">
-      <c r="F596" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="G596" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="K596" s="4"/>
-      <c r="L596" s="4"/>
-    </row>
-    <row r="597" spans="1:12">
-      <c r="K597" s="4"/>
-      <c r="L597" s="4"/>
-    </row>
-    <row r="598" spans="1:12">
-      <c r="K598" s="4"/>
-      <c r="L598" s="4"/>
-    </row>
-    <row r="599" spans="1:12">
-      <c r="K599" s="4"/>
-      <c r="L599" s="4"/>
-    </row>
-    <row r="600" spans="1:12" ht="45">
-      <c r="A600" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B600" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C600" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D600" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="F600" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K600" s="4"/>
-      <c r="L600" s="4"/>
-    </row>
-    <row r="601" spans="1:12" ht="30">
-      <c r="F601" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G601" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K601" s="4"/>
-      <c r="L601" s="4"/>
-    </row>
-    <row r="602" spans="1:12" ht="45">
-      <c r="F602" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G602" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="K602" s="4"/>
-      <c r="L602" s="4"/>
-    </row>
-    <row r="603" spans="1:12" ht="75">
-      <c r="F603" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="G603" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="K603" s="4"/>
-      <c r="L603" s="4"/>
-    </row>
-    <row r="604" spans="1:12">
-      <c r="K604" s="4"/>
-      <c r="L604" s="4"/>
-    </row>
-    <row r="605" spans="1:12">
-      <c r="K605" s="4"/>
-      <c r="L605" s="4"/>
-    </row>
-    <row r="606" spans="1:12" ht="45">
-      <c r="A606" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B606" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C606" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D606" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="F606" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K606" s="4"/>
-      <c r="L606" s="4"/>
-    </row>
-    <row r="607" spans="1:12" ht="30">
-      <c r="F607" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G607" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K607" s="4"/>
-      <c r="L607" s="4"/>
-    </row>
-    <row r="608" spans="1:12" ht="45">
-      <c r="F608" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G608" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="K608" s="4"/>
-      <c r="L608" s="4"/>
-    </row>
-    <row r="609" spans="1:12" ht="75">
-      <c r="F609" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="G609" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="K609" s="4"/>
-      <c r="L609" s="4"/>
-    </row>
-    <row r="610" spans="1:12">
-      <c r="K610" s="4"/>
-      <c r="L610" s="4"/>
-    </row>
-    <row r="611" spans="1:12">
-      <c r="K611" s="4"/>
-      <c r="L611" s="4"/>
-    </row>
-    <row r="612" spans="1:12" ht="45">
-      <c r="A612" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B612" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C612" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D612" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="F612" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K612" s="4"/>
-      <c r="L612" s="4"/>
-    </row>
-    <row r="613" spans="1:12" ht="30">
-      <c r="F613" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G613" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K613" s="4"/>
-      <c r="L613" s="4"/>
-    </row>
-    <row r="614" spans="1:12" ht="45">
-      <c r="F614" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G614" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="K614" s="4"/>
-      <c r="L614" s="4"/>
-    </row>
-    <row r="615" spans="1:12" ht="30">
-      <c r="F615" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="G615" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="K615" s="4"/>
-      <c r="L615" s="4"/>
-    </row>
-    <row r="616" spans="1:12">
-      <c r="K616" s="4"/>
-      <c r="L616" s="4"/>
-    </row>
-    <row r="617" spans="1:12">
-      <c r="K617" s="4"/>
-      <c r="L617" s="4"/>
-    </row>
-    <row r="618" spans="1:12">
-      <c r="K618" s="4"/>
-      <c r="L618" s="4"/>
-    </row>
-    <row r="619" spans="1:12" ht="45">
-      <c r="A619" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B619" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C619" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D619" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="F619" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K619" s="4"/>
-      <c r="L619" s="4"/>
-    </row>
-    <row r="620" spans="1:12" ht="30">
-      <c r="F620" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G620" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K620" s="4"/>
-      <c r="L620" s="4"/>
-    </row>
-    <row r="621" spans="1:12" ht="45">
-      <c r="F621" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G621" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="K621" s="4"/>
-      <c r="L621" s="4"/>
-    </row>
-    <row r="622" spans="1:12" ht="30">
-      <c r="F622" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="G622" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="H622" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="K622" s="4"/>
-      <c r="L622" s="4"/>
-    </row>
-    <row r="623" spans="1:12">
-      <c r="K623" s="4"/>
-      <c r="L623" s="4"/>
-    </row>
-    <row r="624" spans="1:12">
-      <c r="K624" s="4"/>
-      <c r="L624" s="4"/>
-    </row>
-    <row r="625" spans="1:12">
-      <c r="K625" s="4"/>
-      <c r="L625" s="4"/>
-    </row>
-    <row r="626" spans="1:12" ht="45">
-      <c r="A626" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B626" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C626" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D626" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="F626" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K626" s="4"/>
-      <c r="L626" s="4"/>
-    </row>
-    <row r="627" spans="1:12" ht="30">
-      <c r="F627" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G627" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K627" s="4"/>
-      <c r="L627" s="4"/>
-    </row>
-    <row r="628" spans="1:12" ht="45">
-      <c r="F628" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G628" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="K628" s="4"/>
-      <c r="L628" s="4"/>
-    </row>
-    <row r="629" spans="1:12" ht="240">
-      <c r="F629" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="G629" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="K629" s="4"/>
-      <c r="L629" s="4"/>
-    </row>
-    <row r="630" spans="1:12">
-      <c r="K630" s="4"/>
-      <c r="L630" s="4"/>
-    </row>
-    <row r="631" spans="1:12">
-      <c r="K631" s="4"/>
-      <c r="L631" s="4"/>
-    </row>
-    <row r="632" spans="1:12" ht="45">
-      <c r="A632" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B632" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C632" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D632" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="F632" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K632" s="4"/>
-      <c r="L632" s="4"/>
-    </row>
-    <row r="633" spans="1:12" ht="30">
-      <c r="F633" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G633" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K633" s="4"/>
-      <c r="L633" s="4"/>
-    </row>
-    <row r="634" spans="1:12" ht="45">
-      <c r="F634" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G634" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="K634" s="4"/>
-      <c r="L634" s="4"/>
-    </row>
-    <row r="635" spans="1:12" ht="240">
-      <c r="F635" s="11" t="s">
+      <c r="E395" s="11">
+        <v>4</v>
+      </c>
+      <c r="F395" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="G635" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="K635" s="4"/>
-      <c r="L635" s="4"/>
-    </row>
-    <row r="636" spans="1:12">
-      <c r="K636" s="4"/>
-      <c r="L636" s="4"/>
-    </row>
-    <row r="637" spans="1:12">
-      <c r="K637" s="4"/>
-      <c r="L637" s="4"/>
-    </row>
-    <row r="638" spans="1:12">
-      <c r="K638" s="4"/>
-      <c r="L638" s="4"/>
-    </row>
-    <row r="639" spans="1:12" ht="45">
-      <c r="A639" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B639" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C639" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D639" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="F639" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K639" s="4"/>
-      <c r="L639" s="4"/>
-    </row>
-    <row r="640" spans="1:12" ht="30">
-      <c r="F640" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G640" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K640" s="4"/>
-      <c r="L640" s="4"/>
-    </row>
-    <row r="641" spans="1:12" ht="45">
-      <c r="F641" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G641" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="K641" s="4"/>
-      <c r="L641" s="4"/>
-    </row>
-    <row r="642" spans="1:12" ht="240">
-      <c r="F642" s="11" t="s">
+      <c r="G395" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="G642" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="K642" s="4"/>
-      <c r="L642" s="4"/>
-    </row>
-    <row r="643" spans="1:12">
-      <c r="K643" s="4"/>
-      <c r="L643" s="4"/>
-    </row>
-    <row r="644" spans="1:12">
-      <c r="K644" s="4"/>
-      <c r="L644" s="4"/>
-    </row>
-    <row r="645" spans="1:12" ht="45">
-      <c r="A645" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B645" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C645" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D645" s="15" t="s">
+    </row>
+    <row r="396" spans="1:12" ht="30">
+      <c r="E396" s="11">
+        <v>5</v>
+      </c>
+      <c r="F396" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="F645" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K645" s="4"/>
-      <c r="L645" s="4"/>
-    </row>
-    <row r="646" spans="1:12" ht="30">
-      <c r="F646" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G646" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K646" s="4"/>
-      <c r="L646" s="4"/>
-    </row>
-    <row r="647" spans="1:12" ht="45">
-      <c r="F647" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G647" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="K647" s="4"/>
-      <c r="L647" s="4"/>
-    </row>
-    <row r="648" spans="1:12" ht="240">
-      <c r="F648" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G648" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="K648" s="4"/>
-      <c r="L648" s="4"/>
-    </row>
-    <row r="649" spans="1:12">
-      <c r="K649" s="4"/>
-      <c r="L649" s="4"/>
-    </row>
-    <row r="650" spans="1:12">
-      <c r="K650" s="4"/>
-      <c r="L650" s="4"/>
-    </row>
-    <row r="651" spans="1:12" ht="45">
-      <c r="A651" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B651" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C651" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D651" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="F651" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K651" s="4"/>
-      <c r="L651" s="4"/>
-    </row>
-    <row r="652" spans="1:12" ht="30">
-      <c r="F652" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G652" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K652" s="4"/>
-      <c r="L652" s="4"/>
-    </row>
-    <row r="653" spans="1:12" ht="45">
-      <c r="F653" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="G653" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="K653" s="4"/>
-      <c r="L653" s="4"/>
-    </row>
-    <row r="654" spans="1:12" ht="240">
-      <c r="F654" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="G654" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="K654" s="4"/>
-      <c r="L654" s="4"/>
-    </row>
-    <row r="655" spans="1:12">
-      <c r="K655" s="4"/>
-      <c r="L655" s="4"/>
-    </row>
-    <row r="656" spans="1:12">
-      <c r="K656" s="4"/>
-      <c r="L656" s="4"/>
-    </row>
-    <row r="657" spans="1:12" ht="45">
-      <c r="A657" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B657" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C657" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D657" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="F657" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K657" s="4"/>
-      <c r="L657" s="4"/>
-    </row>
-    <row r="658" spans="1:12" ht="30">
-      <c r="F658" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G658" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K658" s="4"/>
-      <c r="L658" s="4"/>
-    </row>
-    <row r="659" spans="1:12" ht="45">
-      <c r="F659" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="G659" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="J659" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="K659" s="4"/>
-      <c r="L659" s="4"/>
-    </row>
-    <row r="660" spans="1:12" ht="45">
-      <c r="F660" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="G660" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="K660" s="4"/>
-      <c r="L660" s="4"/>
-    </row>
-    <row r="661" spans="1:12">
-      <c r="K661" s="4"/>
-      <c r="L661" s="4"/>
-    </row>
-    <row r="662" spans="1:12">
-      <c r="K662" s="4"/>
-      <c r="L662" s="4"/>
-    </row>
-    <row r="663" spans="1:12" ht="45">
-      <c r="A663" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B663" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C663" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D663" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F663" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K663" s="4"/>
-      <c r="L663" s="4"/>
-    </row>
-    <row r="664" spans="1:12" ht="30">
-      <c r="F664" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G664" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="K664" s="4"/>
-      <c r="L664" s="4"/>
-    </row>
-    <row r="665" spans="1:12" ht="45">
-      <c r="F665" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="G665" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L665" s="4"/>
-    </row>
-    <row r="666" spans="1:12" ht="45">
-      <c r="F666" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="G666" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="L666" s="4"/>
-    </row>
-    <row r="667" spans="1:12">
-      <c r="L667" s="4"/>
-    </row>
-    <row r="668" spans="1:12">
-      <c r="L668" s="4"/>
-    </row>
-    <row r="669" spans="1:12" ht="45">
-      <c r="A669" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B669" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C669" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D669" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F669" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L669" s="4"/>
-    </row>
-    <row r="670" spans="1:12" ht="30">
-      <c r="F670" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G670" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L670" s="4"/>
-    </row>
-    <row r="671" spans="1:12" ht="45">
-      <c r="F671" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="G671" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L671" s="4"/>
-    </row>
-    <row r="672" spans="1:12" ht="45">
-      <c r="F672" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="G672" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="L672" s="4"/>
-    </row>
-    <row r="673" spans="1:12">
-      <c r="L673" s="4"/>
-    </row>
-    <row r="674" spans="1:12">
-      <c r="L674" s="4"/>
-    </row>
-    <row r="675" spans="1:12" ht="45">
-      <c r="A675" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B675" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C675" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D675" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F675" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L675" s="4"/>
-    </row>
-    <row r="676" spans="1:12" ht="30">
-      <c r="F676" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G676" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L676" s="4"/>
-    </row>
-    <row r="677" spans="1:12" ht="45">
-      <c r="F677" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="G677" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L677" s="4"/>
-    </row>
-    <row r="678" spans="1:12" ht="45">
-      <c r="F678" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="G678" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="L678" s="4"/>
-    </row>
-    <row r="679" spans="1:12">
-      <c r="L679" s="4"/>
-    </row>
-    <row r="680" spans="1:12">
-      <c r="L680" s="4"/>
-    </row>
-    <row r="681" spans="1:12" ht="45">
-      <c r="A681" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B681" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C681" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D681" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F681" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L681" s="4"/>
-    </row>
-    <row r="682" spans="1:12" ht="30">
-      <c r="F682" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G682" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L682" s="4"/>
-    </row>
-    <row r="683" spans="1:12" ht="45">
-      <c r="F683" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="G683" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L683" s="4"/>
-    </row>
-    <row r="684" spans="1:12" ht="45">
-      <c r="F684" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="G684" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="L684" s="4"/>
-    </row>
-    <row r="685" spans="1:12">
-      <c r="L685" s="4"/>
-    </row>
-    <row r="686" spans="1:12">
-      <c r="L686" s="4"/>
-    </row>
-    <row r="687" spans="1:12" ht="45">
-      <c r="A687" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B687" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C687" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D687" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F687" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L687" s="4"/>
-    </row>
-    <row r="688" spans="1:12" ht="30">
-      <c r="F688" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G688" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L688" s="4"/>
-    </row>
-    <row r="689" spans="1:12" ht="45">
-      <c r="F689" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="G689" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="L689" s="4"/>
-    </row>
-    <row r="690" spans="1:12" ht="45">
-      <c r="F690" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="G690" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="L690" s="4"/>
-    </row>
-    <row r="691" spans="1:12">
-      <c r="L691" s="4"/>
-    </row>
-    <row r="692" spans="1:12" ht="45">
-      <c r="A692" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B692" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C692" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D692" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="F692" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L692" s="4"/>
-    </row>
-    <row r="693" spans="1:12" ht="30">
-      <c r="F693" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G693" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L693" s="4"/>
-    </row>
-    <row r="694" spans="1:12" ht="45">
-      <c r="F694" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G694" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="L694" s="4"/>
-    </row>
-    <row r="695" spans="1:12" ht="30">
-      <c r="F695" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G695" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="L695" s="4"/>
-    </row>
-    <row r="696" spans="1:12">
-      <c r="L696" s="4"/>
-    </row>
-    <row r="697" spans="1:12" ht="45">
-      <c r="A697" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B697" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C697" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D697" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="F697" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L697" s="4"/>
-    </row>
-    <row r="698" spans="1:12" ht="30">
-      <c r="F698" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G698" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L698" s="4"/>
-    </row>
-    <row r="699" spans="1:12" ht="45">
-      <c r="F699" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G699" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="L699" s="4"/>
-    </row>
-    <row r="700" spans="1:12" ht="30">
-      <c r="F700" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G700" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="L700" s="4"/>
-    </row>
-    <row r="701" spans="1:12" ht="45">
-      <c r="F701" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G701" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="L701" s="4"/>
-    </row>
-    <row r="702" spans="1:12" ht="30">
-      <c r="F702" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G702" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="L702" s="4"/>
-    </row>
-    <row r="703" spans="1:12">
-      <c r="L703" s="4"/>
-    </row>
-    <row r="704" spans="1:12">
-      <c r="L704" s="4"/>
-    </row>
-    <row r="705" spans="1:12" ht="45">
-      <c r="A705" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B705" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C705" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D705" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="F705" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L705" s="4"/>
-    </row>
-    <row r="706" spans="1:12" ht="30">
-      <c r="F706" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G706" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="L706" s="4"/>
-    </row>
-    <row r="707" spans="1:12" ht="45">
-      <c r="F707" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="G707" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="L707" s="4"/>
-    </row>
-    <row r="708" spans="1:12" ht="30">
-      <c r="F708" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="G708" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="L708" s="4"/>
-    </row>
-    <row r="709" spans="1:12">
-      <c r="L709" s="4"/>
-    </row>
-    <row r="713" spans="1:12" ht="45">
-      <c r="A713" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B713" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C713" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D713" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="F713" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="714" spans="1:12" ht="30">
-      <c r="F714" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G714" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="715" spans="1:12" ht="45">
-      <c r="F715" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G715" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="716" spans="1:12" ht="30">
-      <c r="F716" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G716" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="717" spans="1:12" ht="45">
-      <c r="F717" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G717" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="718" spans="1:12" ht="30">
-      <c r="F718" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G718" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="721" spans="1:7" ht="45">
-      <c r="A721" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B721" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C721" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D721" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="F721" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="722" spans="1:7" ht="30">
-      <c r="F722" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G722" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="723" spans="1:7" ht="45">
-      <c r="F723" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G723" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="724" spans="1:7" ht="30">
-      <c r="F724" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G724" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="725" spans="1:7" ht="45">
-      <c r="F725" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G725" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="726" spans="1:7" ht="30">
-      <c r="F726" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G726" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="729" spans="1:7" ht="45">
-      <c r="A729" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B729" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C729" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D729" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="F729" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="730" spans="1:7" ht="30">
-      <c r="F730" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G730" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="731" spans="1:7" ht="45">
-      <c r="F731" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G731" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="732" spans="1:7" ht="30">
-      <c r="F732" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G732" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="733" spans="1:7" ht="45">
-      <c r="F733" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G733" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="734" spans="1:7" ht="30">
-      <c r="F734" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G734" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="737" spans="1:7" ht="45">
-      <c r="A737" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B737" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C737" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D737" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="F737" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="738" spans="1:7" ht="30">
-      <c r="F738" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G738" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="739" spans="1:7" ht="30">
-      <c r="F739" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="G739" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="740" spans="1:7" ht="30">
-      <c r="F740" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G740" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="741" spans="1:7" ht="45">
-      <c r="F741" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G741" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="742" spans="1:7" ht="30">
-      <c r="F742" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G742" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="745" spans="1:7" ht="45">
-      <c r="A745" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B745" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C745" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D745" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="F745" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="746" spans="1:7" ht="30">
-      <c r="F746" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G746" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="747" spans="1:7" ht="30">
-      <c r="F747" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="G747" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="748" spans="1:7" ht="30">
-      <c r="F748" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G748" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="749" spans="1:7" ht="45">
-      <c r="F749" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G749" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="750" spans="1:7" ht="30">
-      <c r="F750" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G750" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="753" spans="1:8" ht="45">
-      <c r="A753" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B753" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C753" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D753" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="F753" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="754" spans="1:8" ht="30">
-      <c r="F754" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G754" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="755" spans="1:8" ht="30">
-      <c r="F755" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="G755" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="756" spans="1:8" ht="60">
-      <c r="F756" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="G756" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="758" spans="1:8" ht="45">
-      <c r="A758" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B758" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C758" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D758" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="F758" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="759" spans="1:8" ht="30">
-      <c r="F759" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G759" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="760" spans="1:8" ht="30">
-      <c r="F760" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="G760" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="761" spans="1:8" ht="60">
-      <c r="F761" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="G761" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="764" spans="1:8" ht="45">
-      <c r="A764" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="B764" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C764" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D764" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="F764" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="765" spans="1:8" ht="30">
-      <c r="E765" s="11">
-        <v>1</v>
-      </c>
-      <c r="F765" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G765" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="H765" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="766" spans="1:8" ht="30">
-      <c r="E766" s="11">
-        <v>2</v>
-      </c>
-      <c r="F766" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G766" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H766" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="767" spans="1:8" ht="30">
-      <c r="E767" s="11">
-        <v>3</v>
-      </c>
-      <c r="F767" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G767" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="H767" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="768" spans="1:8" ht="45">
-      <c r="E768" s="11">
-        <v>4</v>
-      </c>
-      <c r="F768" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="H768" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="769" spans="1:12" ht="45">
-      <c r="E769" s="11">
-        <v>5</v>
-      </c>
-      <c r="F769" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="G769" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="H769" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="L769" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="771" spans="1:12" ht="45">
-      <c r="A771" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="B771" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C771" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D771" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="F771" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="772" spans="1:12" ht="30">
-      <c r="E772" s="11">
-        <v>1</v>
-      </c>
-      <c r="F772" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G772" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="H772" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="773" spans="1:12" ht="30">
-      <c r="E773" s="11">
-        <v>2</v>
-      </c>
-      <c r="F773" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G773" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H773" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="774" spans="1:12" ht="30">
-      <c r="E774" s="11">
-        <v>3</v>
-      </c>
-      <c r="F774" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G774" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="H774" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="775" spans="1:12" ht="45">
-      <c r="E775" s="11">
-        <v>4</v>
-      </c>
-      <c r="F775" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="H775" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="776" spans="1:12" ht="30">
-      <c r="E776" s="11">
-        <v>5</v>
-      </c>
-      <c r="F776" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="G776" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="H776" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="777" spans="1:12" ht="30">
-      <c r="E777" s="11">
-        <v>6</v>
-      </c>
-      <c r="F777" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="G777" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="H777" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="778" spans="1:12" ht="75">
-      <c r="E778" s="11">
-        <v>7</v>
-      </c>
-      <c r="F778" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="G778" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="H778" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="L778" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="780" spans="1:12" ht="45">
-      <c r="A780" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="B780" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C780" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D780" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="F780" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="781" spans="1:12" ht="30">
-      <c r="E781" s="11">
-        <v>1</v>
-      </c>
-      <c r="F781" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G781" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="782" spans="1:12" ht="30">
-      <c r="E782" s="11">
-        <v>2</v>
-      </c>
-      <c r="F782" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G782" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="783" spans="1:12" ht="30">
-      <c r="E783" s="11">
-        <v>3</v>
-      </c>
-      <c r="F783" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G783" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="784" spans="1:12" ht="45">
-      <c r="E784" s="11">
-        <v>4</v>
-      </c>
-      <c r="F784" s="11" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="785" spans="1:12" ht="30">
-      <c r="E785" s="11">
-        <v>5</v>
-      </c>
-      <c r="F785" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="G785" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="786" spans="1:12" ht="30">
-      <c r="E786" s="11">
-        <v>6</v>
-      </c>
-      <c r="F786" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="G786" s="11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="787" spans="1:12" ht="45">
-      <c r="E787" s="11">
-        <v>7</v>
-      </c>
-      <c r="F787" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="G787" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="L787" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="789" spans="1:12" ht="45">
-      <c r="A789" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="B789" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C789" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D789" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="F789" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="790" spans="1:12" ht="30">
-      <c r="E790" s="11">
-        <v>1</v>
-      </c>
-      <c r="F790" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G790" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="791" spans="1:12" ht="30">
-      <c r="E791" s="11">
-        <v>2</v>
-      </c>
-      <c r="F791" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G791" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="792" spans="1:12" ht="30">
-      <c r="E792" s="11">
-        <v>3</v>
-      </c>
-      <c r="F792" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G792" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="793" spans="1:12" ht="45">
-      <c r="E793" s="11">
-        <v>4</v>
-      </c>
-      <c r="F793" s="11" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="794" spans="1:12" ht="30">
-      <c r="E794" s="11">
-        <v>5</v>
-      </c>
-      <c r="F794" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="G794" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="795" spans="1:12" ht="30">
-      <c r="E795" s="11">
-        <v>6</v>
-      </c>
-      <c r="F795" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="G795" s="11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="796" spans="1:12" ht="75">
-      <c r="E796" s="11">
-        <v>7</v>
-      </c>
-      <c r="F796" s="11" t="s">
-        <v>631</v>
-      </c>
-      <c r="G796" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="L796" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="798" spans="1:12" ht="45">
-      <c r="A798" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="B798" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C798" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D798" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="F798" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="799" spans="1:12" ht="30">
-      <c r="E799" s="11">
-        <v>1</v>
-      </c>
-      <c r="F799" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G799" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="800" spans="1:12" ht="30">
-      <c r="E800" s="11">
-        <v>2</v>
-      </c>
-      <c r="F800" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G800" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="801" spans="1:12" ht="30">
-      <c r="E801" s="11">
-        <v>3</v>
-      </c>
-      <c r="F801" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G801" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="802" spans="1:12">
-      <c r="E802" s="11">
-        <v>4</v>
-      </c>
-      <c r="F802" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="G802" s="11" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="803" spans="1:12" ht="60">
-      <c r="E803" s="11">
-        <v>5</v>
-      </c>
-      <c r="F803" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="G803" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="L803" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="805" spans="1:12" ht="45">
-      <c r="A805" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="B805" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C805" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D805" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="F805" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="806" spans="1:12" ht="30">
-      <c r="E806" s="11">
-        <v>1</v>
-      </c>
-      <c r="F806" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G806" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="807" spans="1:12" ht="30">
-      <c r="E807" s="11">
-        <v>2</v>
-      </c>
-      <c r="F807" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G807" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="808" spans="1:12" ht="30">
-      <c r="E808" s="11">
-        <v>3</v>
-      </c>
-      <c r="F808" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G808" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="809" spans="1:12">
-      <c r="E809" s="11">
-        <v>4</v>
-      </c>
-      <c r="F809" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="G809" s="11" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="810" spans="1:12" ht="60">
-      <c r="E810" s="11">
-        <v>5</v>
-      </c>
-      <c r="F810" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="G810" s="11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="811" spans="1:12" ht="30">
-      <c r="E811" s="11">
-        <v>6</v>
-      </c>
-      <c r="F811" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="G811" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="L811" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="813" spans="1:12" ht="45">
-      <c r="A813" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="B813" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C813" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D813" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="F813" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="814" spans="1:12" ht="30">
-      <c r="E814" s="11">
-        <v>1</v>
-      </c>
-      <c r="F814" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G814" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="815" spans="1:12" ht="30">
-      <c r="E815" s="11">
-        <v>2</v>
-      </c>
-      <c r="F815" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G815" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="816" spans="1:12" ht="45">
-      <c r="E816" s="11">
-        <v>3</v>
-      </c>
-      <c r="F816" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="G816" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="817" spans="1:12" ht="30">
-      <c r="E817" s="11">
-        <v>4</v>
-      </c>
-      <c r="F817" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="G817" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="818" spans="1:12">
-      <c r="E818" s="11">
-        <v>5</v>
-      </c>
-      <c r="F818" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="G818" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="L818" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="820" spans="1:12" ht="45">
-      <c r="A820" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="B820" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C820" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D820" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="F820" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="821" spans="1:12" ht="30">
-      <c r="E821" s="11">
-        <v>1</v>
-      </c>
-      <c r="F821" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G821" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="822" spans="1:12" ht="30">
-      <c r="E822" s="11">
-        <v>2</v>
-      </c>
-      <c r="F822" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="G822" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="823" spans="1:12" ht="45">
-      <c r="E823" s="11">
-        <v>3</v>
-      </c>
-      <c r="F823" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="G823" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="824" spans="1:12" ht="30">
-      <c r="E824" s="11">
-        <v>4</v>
-      </c>
-      <c r="F824" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="G824" s="11" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="825" spans="1:12" ht="30">
-      <c r="E825" s="11">
-        <v>5</v>
-      </c>
-      <c r="F825" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="L825" s="5" t="s">
+      <c r="L396" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11813,20 +7223,14 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C637:C638 C644 C650 C656 C662 C668 C674 C680 C686 C701:C704 C709:C711 C717:C719 C725:C727 C733:C735 C741:C743 C749:C751 C757">
-      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B354 B2 B14:B16 B8 B22:B25 B30:B32 B38:B40 B135 B127 B119 B125 B113 B103:B104 B97 B95 B89 B87 B80:B81 B149 B143 B213:B214 B195 B181 B168 B166 B72:B74 B66 B208 B202 B58 B56 B49 B188 B176 B160 B157 B151 B133 B141 B220 B236:B237 B227:B229 B239 B253:B254 B246 B262 B310 B316:B317 B286 B323:B324 B288 B294:B295 B280 B301:B302 B308 B272 B278 B333 B339:B340 B346:B347">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B278 B272 B308 B301:B302 B280 B294:B295 B288 B323:B324 B286 B316:B317 B310 B262 B246 B253:B254 B239 B227:B229 B236:B237 B220 B141 B133 B151 B157 B160 B176 B188 B49 B56 B58 B202 B208 B66 B72:B74 B166 B168 B181 B195 B213:B214 B143 B149 B80:B81 B87 B89 B95 B97 B103:B104 B113 B125 B119 B127 B135 B38:B40 B30:B32 B22:B25 B8 B14:B16">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K458:K664">
-      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C758:C761 K2:K47 C2:C47 C58:C110 C113:C636 K56:K457 C49:C56 C639:C643 C645:C649 C651:C655 C657:C661 C663:C667 C669:C673 C675:C679 C681:C685 C687:C700 C705:C708 C713:C716 C721:C724 C729:C732 C737:C740 C745:C748 C753:C756">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K47 C49:C56 K56:K332 C113:C332 C58:C110 C2:C47">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L56:L709 L758:L825 L2:L47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L47 L56:L396">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11854,17 +7258,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>21</v>
@@ -11872,7 +7276,7 @@
     </row>
     <row r="2" spans="1:6" ht="45">
       <c r="B2" s="15" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C2" s="15"/>
     </row>
@@ -11881,10 +7285,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75">
@@ -11892,10 +7296,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105">
@@ -11903,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -11914,18 +7318,18 @@
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C7" s="15"/>
     </row>
@@ -11934,10 +7338,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75">
@@ -11945,10 +7349,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="105">
@@ -11956,10 +7360,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -11967,10 +7371,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -11978,30 +7382,30 @@
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75">
@@ -12009,10 +7413,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="105">
@@ -12020,10 +7424,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
@@ -12031,27 +7435,27 @@
         <v>4</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75">
@@ -12059,10 +7463,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="105">
@@ -12070,10 +7474,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -12081,10 +7485,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60">
@@ -12092,27 +7496,27 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75">
@@ -12120,10 +7524,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="105">
@@ -12131,10 +7535,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -12142,27 +7546,27 @@
         <v>4</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="75">
@@ -12170,10 +7574,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105">
@@ -12181,10 +7585,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45">
@@ -12192,10 +7596,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45">
@@ -12203,10 +7607,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45">
@@ -12214,27 +7618,27 @@
         <v>6</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="75">
@@ -12242,10 +7646,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="105">
@@ -12253,10 +7657,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
@@ -12264,27 +7668,27 @@
         <v>4</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="75">
@@ -12292,10 +7696,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="105">
@@ -12303,10 +7707,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45">
@@ -12314,10 +7718,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45">
@@ -12325,27 +7729,27 @@
         <v>5</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45">
       <c r="A43" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="75">
@@ -12353,10 +7757,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="105">
@@ -12364,10 +7768,10 @@
         <v>3</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45">
@@ -12375,10 +7779,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="180">
@@ -12386,27 +7790,27 @@
         <v>5</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
       <c r="A48" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="75">
@@ -12414,10 +7818,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="105">
@@ -12425,10 +7829,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45">
@@ -12436,10 +7840,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="180">
@@ -12447,10 +7851,10 @@
         <v>5</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60">
@@ -12458,24 +7862,24 @@
         <v>6</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E54" s="15"/>
     </row>
@@ -12484,10 +7888,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30">
@@ -12495,24 +7899,24 @@
         <v>3</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -12521,10 +7925,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="60">
@@ -12532,75 +7936,75 @@
         <v>3</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="C60" s="17" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45">
       <c r="A61" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60">
       <c r="D62" s="15" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="D63" s="15" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60">
       <c r="D66" s="15" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30">
       <c r="D67" s="15" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30">
@@ -12608,37 +8012,37 @@
         <v>2</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60">
       <c r="D70" s="15" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="165">
       <c r="D71" s="15" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
       <c r="D72" s="15" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45">
@@ -12646,45 +8050,45 @@
         <v>3</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="75">
       <c r="D74" s="15" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="210">
       <c r="D75" s="15" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30">
       <c r="D76" s="15" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
       <c r="D77" s="15" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30">
@@ -12692,37 +8096,37 @@
         <v>4</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="60">
       <c r="D80" s="15" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="240">
       <c r="D81" s="15" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30">
       <c r="D82" s="15" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="60">
@@ -12730,37 +8134,37 @@
         <v>5</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="60">
       <c r="D84" s="15" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45">
       <c r="D85" s="15" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30">
       <c r="D86" s="15" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30">
@@ -12768,37 +8172,37 @@
         <v>6</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="60">
       <c r="D89" s="15" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="45">
       <c r="D90" s="15" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30">
       <c r="D91" s="15" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30">
@@ -12806,37 +8210,37 @@
         <v>7</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60">
       <c r="D94" s="15" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45">
       <c r="D95" s="15" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30">
       <c r="D96" s="15" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30">
@@ -12844,29 +8248,29 @@
         <v>8.8888888888888797E+104</v>
       </c>
       <c r="B98" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="60">
       <c r="D99" s="15" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="225">
       <c r="D100" s="15" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45">
@@ -12874,37 +8278,37 @@
         <v>9</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="60">
       <c r="D103" s="15" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45">
       <c r="D104" s="15" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30">
       <c r="D105" s="15" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30">
@@ -12912,37 +8316,37 @@
         <v>10</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60">
       <c r="D109" s="15" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45">
       <c r="D110" s="15" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30">
       <c r="D111" s="15" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30">
@@ -12950,37 +8354,37 @@
         <v>11</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="60">
       <c r="D113" s="15" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="45">
       <c r="D114" s="15" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="30">
       <c r="D115" s="15" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30">
@@ -12988,29 +8392,29 @@
         <v>12</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="60">
       <c r="D119" s="15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="45">
       <c r="D120" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30">
@@ -13018,29 +8422,29 @@
         <v>13</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="60">
       <c r="D122" s="15" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="150">
       <c r="D123" s="15" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
@@ -13048,44 +8452,44 @@
         <v>13</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="60">
       <c r="D127" s="15" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="45">
       <c r="D128" s="15" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="45">
       <c r="A134" s="15" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>465</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -13108,107 +8512,107 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>556</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>557</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>561</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="17" t="s">
-        <v>568</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>570</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>571</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>575</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>576</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>577</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>579</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
